--- a/Jourdan_RL_RT_and_BAR_summary.xlsx
+++ b/Jourdan_RL_RT_and_BAR_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arie/Desktop/Other nuclei/Jourdan RL-RT plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaolin/Desktop/2023 Fall/RLRT_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68F17C-CDEF-8F48-A92B-D3588D2B5559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C5A42-8DAD-3146-89E9-B5D6E6CD4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="500" windowWidth="22300" windowHeight="16680" firstSheet="2" activeTab="10" xr2:uid="{78F2D59E-CCB4-BA4C-8B56-3BDABA1766A2}"/>
+    <workbookView xWindow="4960" yWindow="500" windowWidth="22300" windowHeight="16340" firstSheet="2" activeTab="7" xr2:uid="{78F2D59E-CCB4-BA4C-8B56-3BDABA1766A2}"/>
   </bookViews>
   <sheets>
     <sheet name="RL.30" sheetId="4" r:id="rId1"/>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,7 +239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -256,11 +255,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -20199,7 +20193,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220EF951-2AC4-3645-9997-7C23664774D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20243,7 +20237,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A7C0F9-AA3A-E946-8AE1-260422E5FC15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20279,7 +20273,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6C4BC4-1DC3-CE45-A090-1EC5E2A12351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20323,7 +20317,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8810B084-D77B-56A8-A0C7-6A39E5AA0689}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20359,7 +20353,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA9A85F-02FD-37F9-369C-BD9AE02C880D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20400,7 +20394,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB81E66-0AEC-D8CE-B738-6670D267FA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20444,7 +20438,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904258F2-24A8-3F70-7399-25E7D0C61FAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20488,7 +20482,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9207597D-5B4F-7B51-CC35-D2C9C9B973C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20524,7 +20518,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A052C85-FC1C-CFFC-9980-2D3D97AC3824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20560,7 +20554,7 @@
         <xdr:cNvPr id="6" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C660E32-C43A-F9B2-C834-4EC91165C4EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20746,7 +20740,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFFFD2D-2D38-C1FE-9200-7CFA8A98AC46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20790,7 +20784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D29854B-DE54-1462-9F2C-7CED4544E991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20834,7 +20828,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B664EAA5-C930-1128-645F-112A5B2D4C3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20870,7 +20864,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FDD119-7A3B-17CD-480A-6D2AD8897BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20906,7 +20900,7 @@
         <xdr:cNvPr id="6" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C660E32-C43A-F9B2-C834-4EC91165C4EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21092,7 +21086,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24665E01-D3E4-514E-BF47-08C6BA5F8376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21136,7 +21130,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AAFD20-EE30-AE4E-8814-6A565EC59475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21172,7 +21166,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3863E042-BDAF-F39A-6236-055CA2DC0309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21221,7 +21215,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C072134C-00BD-FD40-A3CE-B87638E1F68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21265,7 +21259,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19156913-F64A-9347-811C-282B3814EEFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21301,7 +21295,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B87043-CB68-7E45-A252-B3E03DF7F5DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21350,7 +21344,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171CA4AC-3F0F-A24F-A847-3136C1DC77CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21394,7 +21388,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12243219-EEAB-A345-B69B-494C4125E9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21430,7 +21424,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E8748E-1AEF-3448-81E4-7C06E3736185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21479,7 +21473,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6E7D93-740F-9244-ADDF-313B27933104}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21523,7 +21517,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF4203D-C17E-7747-BAA6-E94CFB63469E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21559,7 +21553,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3379367-5292-BA46-A1DF-6667813AA169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21608,7 +21602,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80501E03-D295-9945-A369-5DDC5CB2FFC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21652,7 +21646,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5D6F01-DD73-3E48-9E91-C751C6ADA8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21688,7 +21682,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3079B-91A1-6565-C072-A0C3876755B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21737,7 +21731,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86006520-0066-F0F8-8CE2-8739B53EC0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21781,7 +21775,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363424D3-55AC-9262-0EAB-90F221BB7AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21825,7 +21819,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A43DDB-CED5-915A-CFE1-7CB0807EA743}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21869,7 +21863,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DBBB20-D90A-4B44-B4A2-1D4D9998D402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21912,7 +21906,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451B20DF-317F-4E49-8C6F-F1B5C41F0290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21956,7 +21950,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9956511-8BBC-BAFB-C9D1-59EA3EFD1F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22000,7 +21994,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3D347-40C1-38F4-0013-68865DD04E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22044,7 +22038,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E6D957-BDE9-5C89-742E-EE7F7F29AABB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22085,7 +22079,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9266FD2-0B90-9864-AE6F-F869372A6032}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22129,7 +22123,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65963C57-A5E3-E8FD-1A95-A50C84D455CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22173,7 +22167,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1336423-8D54-11FE-9133-5BAA75619C35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22209,7 +22203,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D218EC-88E1-BF60-83D5-6111CAACA437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22245,7 +22239,7 @@
         <xdr:cNvPr id="6" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C660E32-C43A-F9B2-C834-4EC91165C4EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22720,16 +22714,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>0.3</v>
       </c>
       <c r="E1" t="s">
@@ -22737,16 +22731,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -22754,16 +22748,16 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="5">
         <v>0.14349999999999999</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>2.2350000000000002E-2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>1.2499999999999994E-3</v>
       </c>
       <c r="E3" s="9">
@@ -22773,16 +22767,16 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="5">
         <v>0.14280000000000001</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>0.04</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>1.1000000000000003E-3</v>
       </c>
       <c r="E4" s="9">
@@ -22792,16 +22786,16 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="5">
         <v>0.1419</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.05</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>2.63E-2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>1.1999999999999997E-3</v>
       </c>
       <c r="E5" s="9">
@@ -22811,16 +22805,16 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="5">
         <v>0.14080000000000001</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>0.06</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>2.7299999999999998E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="E6" s="9">
@@ -22830,16 +22824,16 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="5">
         <v>0.13950000000000001</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>2.6299999999999997E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="E7" s="11">
@@ -22849,16 +22843,16 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0.08</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>2.5599999999999998E-2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2.4000000000000011E-3</v>
       </c>
       <c r="E8" s="9">
@@ -22868,16 +22862,16 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="5">
         <v>0.1363</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>0.09</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>2.3600000000000003E-2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>2E-3</v>
       </c>
       <c r="E9" s="9">
@@ -22887,16 +22881,16 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="5">
         <v>0.13439999999999999</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>0.1</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>1.865E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>1.15E-3</v>
       </c>
       <c r="E10" s="9">
@@ -22906,16 +22900,16 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="5">
         <v>0.1323</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>0.11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>1.755E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1.6499999999999987E-3</v>
       </c>
       <c r="E11" s="9">
@@ -22925,16 +22919,16 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="5">
         <v>0.13</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>0.12</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>1.4149999999999999E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1.3499999999999996E-3</v>
       </c>
       <c r="E12" s="9">
@@ -22944,16 +22938,16 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="5">
         <v>0.1275</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.13</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>1.14E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>1.1999999999999997E-3</v>
       </c>
       <c r="E13" s="9">
@@ -22966,16 +22960,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="5">
         <v>0.12479999999999999</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>9.4500000000000001E-3</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>1.15E-3</v>
       </c>
       <c r="E14" s="9">
@@ -22985,33 +22979,33 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="5"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="5"/>
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="5"/>
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="5"/>
       <c r="R19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="5"/>
       <c r="R20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="5"/>
       <c r="R21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -23136,23 +23130,23 @@
     </row>
     <row r="62" spans="17:21" x14ac:dyDescent="0.2">
       <c r="Q62">
-        <f t="shared" ref="Q41:Q104" si="1">Q61+DELTA</f>
+        <f t="shared" ref="Q62:Q104" si="1">Q61+DELTA</f>
         <v>0</v>
       </c>
       <c r="R62" s="14" t="e">
-        <f t="shared" ref="R40:R71" si="2">ARL*(EXP(Q62*CRL))*(Q62+DRL)/(Q62+BRL)</f>
+        <f t="shared" ref="R62:R71" si="2">ARL*(EXP(Q62*CRL))*(Q62+DRL)/(Q62+BRL)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S41:S62" si="3">Q62</f>
+        <f t="shared" ref="S62" si="3">Q62</f>
         <v>0</v>
       </c>
       <c r="T62" s="14" t="e">
-        <f t="shared" ref="T40:T71" si="4">ART*(EXP(S62*CRT))*((S62+DRT)/(S62+BRT))</f>
+        <f t="shared" ref="T62:T71" si="4">ART*(EXP(S62*CRT))*((S62+DRT)/(S62+BRT))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U62" t="e">
-        <f t="shared" ref="U40:U71" si="5">R62+FRAC*T62</f>
+        <f t="shared" ref="U62:U71" si="5">R62+FRAC*T62</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25175,26 +25169,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="4" width="10.83203125" style="16"/>
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="13"/>
     <col min="7" max="9" width="9" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="15">
         <v>0.4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I1">
@@ -25229,7 +25222,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
-        <f>q340_^2-B3^2</f>
+        <f t="shared" ref="A3:A34" si="0">q340_^2-B3^2</f>
         <v>0.15974044202025089</v>
       </c>
       <c r="B3" s="15">
@@ -25242,7 +25235,7 @@
         <v>5.1499999999999983E-4</v>
       </c>
       <c r="F3" s="13">
-        <f>q340_^2-G3^2</f>
+        <f t="shared" ref="F3:F34" si="1">q340_^2-G3^2</f>
         <v>0.15972635469279606</v>
       </c>
       <c r="G3" s="15">
@@ -25257,7 +25250,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <f>q340_^2-B4^2</f>
+        <f t="shared" si="0"/>
         <v>0.15954577849462431</v>
       </c>
       <c r="B4" s="15">
@@ -25270,7 +25263,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F4" s="13">
-        <f>q340_^2-G4^2</f>
+        <f t="shared" si="1"/>
         <v>0.15951778861648669</v>
       </c>
       <c r="G4" s="15">
@@ -25285,7 +25278,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
-        <f>q340_^2-B5^2</f>
+        <f t="shared" si="0"/>
         <v>0.15929446967578872</v>
       </c>
       <c r="B5" s="15">
@@ -25298,7 +25291,7 @@
         <v>5.0499999999999981E-4</v>
       </c>
       <c r="F5" s="13">
-        <f>q340_^2-G5^2</f>
+        <f t="shared" si="1"/>
         <v>0.15927044996028616</v>
       </c>
       <c r="G5" s="15">
@@ -25313,7 +25306,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <f>q340_^2-B6^2</f>
+        <f t="shared" si="0"/>
         <v>0.1589941072311217</v>
       </c>
       <c r="B6" s="15">
@@ -25326,7 +25319,7 @@
         <v>4.7499999999999973E-4</v>
       </c>
       <c r="F6" s="13">
-        <f>q340_^2-G6^2</f>
+        <f t="shared" si="1"/>
         <v>0.15897086846719363</v>
       </c>
       <c r="G6" s="15">
@@ -25341,7 +25334,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <f>q340_^2-B7^2</f>
+        <f t="shared" si="0"/>
         <v>0.1586633739021015</v>
       </c>
       <c r="B7" s="15">
@@ -25354,7 +25347,7 @@
         <v>4.750000000000006E-4</v>
       </c>
       <c r="F7" s="13">
-        <f>q340_^2-G7^2</f>
+        <f t="shared" si="1"/>
         <v>0.15864029868423965</v>
       </c>
       <c r="G7" s="15">
@@ -25369,7 +25362,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <f>q340_^2-B8^2</f>
+        <f t="shared" si="0"/>
         <v>0.15828452561795686</v>
       </c>
       <c r="B8" s="15">
@@ -25382,7 +25375,7 @@
         <v>3.1500000000000018E-4</v>
       </c>
       <c r="F8" s="13">
-        <f>q340_^2-G8^2</f>
+        <f t="shared" si="1"/>
         <v>0.15824667833463618</v>
       </c>
       <c r="G8" s="15">
@@ -25397,7 +25390,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <f>q340_^2-B9^2</f>
+        <f t="shared" si="0"/>
         <v>0.15780608239241725</v>
       </c>
       <c r="B9" s="15">
@@ -25410,7 +25403,7 @@
         <v>4.9999999999999958E-4</v>
       </c>
       <c r="F9" s="13">
-        <f>q340_^2-G9^2</f>
+        <f t="shared" si="1"/>
         <v>0.15783019888689664</v>
       </c>
       <c r="G9" s="15">
@@ -25425,7 +25418,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <f>q340_^2-B10^2</f>
+        <f t="shared" si="0"/>
         <v>0.15735096180305916</v>
       </c>
       <c r="B10" s="15">
@@ -25438,7 +25431,7 @@
         <v>8.349999999999998E-4</v>
       </c>
       <c r="F10" s="13">
-        <f>q340_^2-G10^2</f>
+        <f t="shared" si="1"/>
         <v>0.15733315465148598</v>
       </c>
       <c r="G10" s="15">
@@ -25453,7 +25446,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <f>q340_^2-B11^2</f>
+        <f t="shared" si="0"/>
         <v>0.15674562450238608</v>
       </c>
       <c r="B11" s="15">
@@ -25466,7 +25459,7 @@
         <v>7.549999999999996E-4</v>
       </c>
       <c r="F11" s="13">
-        <f>q340_^2-G11^2</f>
+        <f t="shared" si="1"/>
         <v>0.1567611203227437</v>
       </c>
       <c r="G11" s="15">
@@ -25481,7 +25474,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <f>q340_^2-B12^2</f>
+        <f t="shared" si="0"/>
         <v>0.15614287335754945</v>
       </c>
       <c r="B12" s="15">
@@ -25494,7 +25487,7 @@
         <v>7.549999999999996E-4</v>
       </c>
       <c r="F12" s="13">
-        <f>q340_^2-G12^2</f>
+        <f t="shared" si="1"/>
         <v>0.15620068052449562</v>
       </c>
       <c r="G12" s="15">
@@ -25509,7 +25502,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <f>q340_^2-B13^2</f>
+        <f t="shared" si="0"/>
         <v>0.15556864404745302</v>
       </c>
       <c r="B13" s="15">
@@ -25522,7 +25515,7 @@
         <v>7.549999999999996E-4</v>
       </c>
       <c r="F13" s="13">
-        <f>q340_^2-G13^2</f>
+        <f t="shared" si="1"/>
         <v>0.15554616589034934</v>
       </c>
       <c r="G13" s="15">
@@ -25537,7 +25530,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <f>q340_^2-B14^2</f>
+        <f t="shared" si="0"/>
         <v>0.15482644369152715</v>
       </c>
       <c r="B14" s="15">
@@ -25550,7 +25543,7 @@
         <v>8.5999999999999965E-4</v>
       </c>
       <c r="F14" s="13">
-        <f>q340_^2-G14^2</f>
+        <f t="shared" si="1"/>
         <v>0.1547992698515763</v>
       </c>
       <c r="G14" s="15">
@@ -25565,7 +25558,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <f>q340_^2-B15^2</f>
+        <f t="shared" si="0"/>
         <v>0.15411198836308229</v>
       </c>
       <c r="B15" s="15">
@@ -25578,7 +25571,7 @@
         <v>8.9499999999999996E-4</v>
       </c>
       <c r="F15" s="13">
-        <f>q340_^2-G15^2</f>
+        <f t="shared" si="1"/>
         <v>0.15407897697910217</v>
       </c>
       <c r="G15" s="15">
@@ -25593,7 +25586,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <f>q340_^2-B16^2</f>
+        <f t="shared" si="0"/>
         <v>0.15328352201833575</v>
       </c>
       <c r="B16" s="15">
@@ -25606,7 +25599,7 @@
         <v>8.7500000000000078E-4</v>
       </c>
       <c r="F16" s="13">
-        <f>q340_^2-G16^2</f>
+        <f t="shared" si="1"/>
         <v>0.15335315064808308</v>
       </c>
       <c r="G16" s="15">
@@ -25621,7 +25614,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <f>q340_^2-B17^2</f>
+        <f t="shared" si="0"/>
         <v>0.15247930838338103</v>
       </c>
       <c r="B17" s="15">
@@ -25634,7 +25627,7 @@
         <v>8.9499999999999996E-4</v>
       </c>
       <c r="F17" s="13">
-        <f>q340_^2-G17^2</f>
+        <f t="shared" si="1"/>
         <v>0.15248098535308852</v>
       </c>
       <c r="G17" s="15">
@@ -25649,7 +25642,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <f>q340_^2-B18^2</f>
+        <f t="shared" si="0"/>
         <v>0.15165142694193515</v>
       </c>
       <c r="B18" s="15">
@@ -25662,7 +25655,7 @@
         <v>9.0499999999999955E-4</v>
       </c>
       <c r="F18" s="13">
-        <f>q340_^2-G18^2</f>
+        <f t="shared" si="1"/>
         <v>0.15147709588718025</v>
       </c>
       <c r="G18" s="15">
@@ -25677,7 +25670,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <f>q340_^2-B19^2</f>
+        <f t="shared" si="0"/>
         <v>0.15062955664145669</v>
       </c>
       <c r="B19" s="15">
@@ -25690,7 +25683,7 @@
         <v>8.6500000000000118E-4</v>
       </c>
       <c r="F19" s="13">
-        <f>q340_^2-G19^2</f>
+        <f t="shared" si="1"/>
         <v>0.15054676112973819</v>
       </c>
       <c r="G19" s="15">
@@ -25705,7 +25698,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f>q340_^2-B20^2</f>
+        <f t="shared" si="0"/>
         <v>0.14964499146016053</v>
       </c>
       <c r="B20" s="15">
@@ -25718,7 +25711,7 @@
         <v>1.2300000000000002E-3</v>
       </c>
       <c r="F20" s="13">
-        <f>q340_^2-G20^2</f>
+        <f t="shared" si="1"/>
         <v>0.14951279570066933</v>
       </c>
       <c r="G20" s="15">
@@ -25733,7 +25726,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f>q340_^2-B21^2</f>
+        <f t="shared" si="0"/>
         <v>0.14861430525437958</v>
       </c>
       <c r="B21" s="15">
@@ -25746,7 +25739,7 @@
         <v>8.9499999999999909E-4</v>
       </c>
       <c r="F21" s="13">
-        <f>q340_^2-G21^2</f>
+        <f t="shared" si="1"/>
         <v>0.14854358584007044</v>
       </c>
       <c r="G21" s="15">
@@ -25761,7 +25754,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <f>q340_^2-B22^2</f>
+        <f t="shared" si="0"/>
         <v>0.14750703289213113</v>
       </c>
       <c r="B22" s="15">
@@ -25774,7 +25767,7 @@
         <v>1.2100000000000001E-3</v>
       </c>
       <c r="F22" s="13">
-        <f>q340_^2-G22^2</f>
+        <f t="shared" si="1"/>
         <v>0.14746028251442564</v>
       </c>
       <c r="G22" s="15">
@@ -25789,7 +25782,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <f>q340_^2-B23^2</f>
+        <f t="shared" si="0"/>
         <v>0.14635841323122017</v>
       </c>
       <c r="B23" s="15">
@@ -25802,7 +25795,7 @@
         <v>1.1750000000000007E-3</v>
       </c>
       <c r="F23" s="13">
-        <f>q340_^2-G23^2</f>
+        <f t="shared" si="1"/>
         <v>0.14631581155312193</v>
       </c>
       <c r="G23" s="15">
@@ -25817,7 +25810,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <f>q340_^2-B24^2</f>
+        <f t="shared" si="0"/>
         <v>0.14516161027971583</v>
       </c>
       <c r="B24" s="15">
@@ -25830,7 +25823,7 @@
         <v>1.2149999999999999E-3</v>
       </c>
       <c r="F24" s="13">
-        <f>q340_^2-G24^2</f>
+        <f t="shared" si="1"/>
         <v>0.14506213764657971</v>
       </c>
       <c r="G24" s="15">
@@ -25845,7 +25838,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f>q340_^2-B25^2</f>
+        <f t="shared" si="0"/>
         <v>0.14397973295067135</v>
       </c>
       <c r="B25" s="15">
@@ -25858,7 +25851,7 @@
         <v>1.3000000000000008E-3</v>
       </c>
       <c r="F25" s="13">
-        <f>q340_^2-G25^2</f>
+        <f t="shared" si="1"/>
         <v>0.14390593045134081</v>
       </c>
       <c r="G25" s="15">
@@ -25873,7 +25866,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f>q340_^2-B26^2</f>
+        <f t="shared" si="0"/>
         <v>0.1426597783981515</v>
       </c>
       <c r="B26" s="15">
@@ -25886,7 +25879,7 @@
         <v>1.2900000000000003E-3</v>
       </c>
       <c r="F26" s="13">
-        <f>q340_^2-G26^2</f>
+        <f t="shared" si="1"/>
         <v>0.14242277800065858</v>
       </c>
       <c r="G26" s="15">
@@ -25901,7 +25894,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f>q340_^2-B27^2</f>
+        <f t="shared" si="0"/>
         <v>0.14117392209172949</v>
       </c>
       <c r="B27" s="15">
@@ -25914,7 +25907,7 @@
         <v>1.3100000000000004E-3</v>
       </c>
       <c r="F27" s="13">
-        <f>q340_^2-G27^2</f>
+        <f t="shared" si="1"/>
         <v>0.14115996142863962</v>
       </c>
       <c r="G27" s="15">
@@ -25929,7 +25922,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f>q340_^2-B28^2</f>
+        <f t="shared" si="0"/>
         <v>0.13982793325257187</v>
       </c>
       <c r="B28" s="15">
@@ -25942,7 +25935,7 @@
         <v>1.2500000000000002E-3</v>
       </c>
       <c r="F28" s="13">
-        <f>q340_^2-G28^2</f>
+        <f t="shared" si="1"/>
         <v>0.13978036925072052</v>
       </c>
       <c r="G28" s="15">
@@ -25957,7 +25950,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <f>q340_^2-B29^2</f>
+        <f t="shared" si="0"/>
         <v>0.13826711273966694</v>
       </c>
       <c r="B29" s="15">
@@ -25970,7 +25963,7 @@
         <v>1.2100000000000001E-3</v>
       </c>
       <c r="F29" s="13">
-        <f>q340_^2-G29^2</f>
+        <f t="shared" si="1"/>
         <v>0.13832683574336899</v>
       </c>
       <c r="G29" s="15">
@@ -25985,7 +25978,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <f>q340_^2-B30^2</f>
+        <f t="shared" si="0"/>
         <v>0.13684734164281548</v>
       </c>
       <c r="B30" s="15">
@@ -25998,7 +25991,7 @@
         <v>8.4500000000000026E-4</v>
       </c>
       <c r="F30" s="13">
-        <f>q340_^2-G30^2</f>
+        <f t="shared" si="1"/>
         <v>0.13677794134372329</v>
       </c>
       <c r="G30" s="15">
@@ -26013,7 +26006,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f>q340_^2-B31^2</f>
+        <f t="shared" si="0"/>
         <v>0.13533325367178159</v>
       </c>
       <c r="B31" s="15">
@@ -26026,7 +26019,7 @@
         <v>8.449999999999994E-4</v>
       </c>
       <c r="F31" s="13">
-        <f>q340_^2-G31^2</f>
+        <f t="shared" si="1"/>
         <v>0.13528936350854645</v>
       </c>
       <c r="G31" s="15">
@@ -26041,7 +26034,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f>q340_^2-B32^2</f>
+        <f t="shared" si="0"/>
         <v>0.13377584643047727</v>
       </c>
       <c r="B32" s="15">
@@ -26054,7 +26047,7 @@
         <v>8.7499999999999991E-4</v>
       </c>
       <c r="F32" s="13">
-        <f>q340_^2-G32^2</f>
+        <f t="shared" si="1"/>
         <v>0.13392531669512886</v>
       </c>
       <c r="G32" s="15">
@@ -26069,7 +26062,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <f>q340_^2-B33^2</f>
+        <f t="shared" si="0"/>
         <v>0.13205292781546774</v>
       </c>
       <c r="B33" s="15">
@@ -26082,7 +26075,7 @@
         <v>8.8499999999999994E-4</v>
       </c>
       <c r="F33" s="13">
-        <f>q340_^2-G33^2</f>
+        <f t="shared" si="1"/>
         <v>0.13206389681602301</v>
       </c>
       <c r="G33" s="15">
@@ -26097,7 +26090,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f>q340_^2-B34^2</f>
+        <f t="shared" si="0"/>
         <v>0.13027355377641564</v>
       </c>
       <c r="B34" s="15">
@@ -26110,7 +26103,7 @@
         <v>8.8000000000000014E-4</v>
       </c>
       <c r="F34" s="13">
-        <f>q340_^2-G34^2</f>
+        <f t="shared" si="1"/>
         <v>0.13031556459777538</v>
       </c>
       <c r="G34" s="15">
@@ -26125,7 +26118,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f>q340_^2-B35^2</f>
+        <f t="shared" ref="A35:A66" si="2">q340_^2-B35^2</f>
         <v>0.12775630641173757</v>
       </c>
       <c r="B35" s="15">
@@ -26138,7 +26131,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
       <c r="F35" s="13">
-        <f>q340_^2-G35^2</f>
+        <f t="shared" ref="F35:F66" si="3">q340_^2-G35^2</f>
         <v>0.12865073801295607</v>
       </c>
       <c r="G35" s="15">
@@ -26153,7 +26146,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <f>q340_^2-B36^2</f>
+        <f t="shared" si="2"/>
         <v>0.12606172739689889</v>
       </c>
       <c r="B36" s="15">
@@ -26166,7 +26159,7 @@
         <v>1.0449999999999999E-3</v>
       </c>
       <c r="F36" s="13">
-        <f>q340_^2-G36^2</f>
+        <f t="shared" si="3"/>
         <v>0.1268522279924324</v>
       </c>
       <c r="G36" s="15">
@@ -26181,7 +26174,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <f>q340_^2-B37^2</f>
+        <f t="shared" si="2"/>
         <v>0.12407838190504397</v>
       </c>
       <c r="B37" s="15">
@@ -26194,7 +26187,7 @@
         <v>1.06E-3</v>
       </c>
       <c r="F37" s="13">
-        <f>q340_^2-G37^2</f>
+        <f t="shared" si="3"/>
         <v>0.12503557910608448</v>
       </c>
       <c r="G37" s="15">
@@ -26209,7 +26202,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f>q340_^2-B38^2</f>
+        <f t="shared" si="2"/>
         <v>0.12200712663732767</v>
       </c>
       <c r="B38" s="15">
@@ -26222,7 +26215,7 @@
         <v>1.3499999999999999E-3</v>
       </c>
       <c r="F38" s="13">
-        <f>q340_^2-G38^2</f>
+        <f t="shared" si="3"/>
         <v>0.12273656683413749</v>
       </c>
       <c r="G38" s="15">
@@ -26237,7 +26230,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <f>q340_^2-B39^2</f>
+        <f t="shared" si="2"/>
         <v>0.12017332718762405</v>
       </c>
       <c r="B39" s="15">
@@ -26250,7 +26243,7 @@
         <v>2.2499999999999994E-4</v>
       </c>
       <c r="F39" s="13">
-        <f>q340_^2-G39^2</f>
+        <f t="shared" si="3"/>
         <v>0.12107507440729598</v>
       </c>
       <c r="G39" s="15">
@@ -26265,7 +26258,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f>q340_^2-B40^2</f>
+        <f t="shared" si="2"/>
         <v>0.11812086658003661</v>
       </c>
       <c r="B40" s="15">
@@ -26278,7 +26271,7 @@
         <v>1.1850000000000001E-3</v>
       </c>
       <c r="F40" s="13">
-        <f>q340_^2-G40^2</f>
+        <f t="shared" si="3"/>
         <v>0.1190161207681005</v>
       </c>
       <c r="G40" s="15">
@@ -26293,7 +26286,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <f>q340_^2-B41^2</f>
+        <f t="shared" si="2"/>
         <v>0.11591078536048627</v>
       </c>
       <c r="B41" s="15">
@@ -26306,7 +26299,7 @@
         <v>1.6850000000000001E-3</v>
       </c>
       <c r="F41" s="13">
-        <f>q340_^2-G41^2</f>
+        <f t="shared" si="3"/>
         <v>0.11683101376078146</v>
       </c>
       <c r="G41" s="15">
@@ -26321,7 +26314,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <f>q340_^2-B42^2</f>
+        <f t="shared" si="2"/>
         <v>0.11374442314918817</v>
       </c>
       <c r="B42" s="15">
@@ -26334,7 +26327,7 @@
         <v>1.2900000000000001E-3</v>
       </c>
       <c r="F42" s="13">
-        <f>q340_^2-G42^2</f>
+        <f t="shared" si="3"/>
         <v>0.11471879357450869</v>
       </c>
       <c r="G42" s="15">
@@ -26349,7 +26342,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <f>q340_^2-B43^2</f>
+        <f t="shared" si="2"/>
         <v>0.11162892426935833</v>
       </c>
       <c r="B43" s="15">
@@ -26362,7 +26355,7 @@
         <v>1.4300000000000001E-3</v>
       </c>
       <c r="F43" s="13">
-        <f>q340_^2-G43^2</f>
+        <f t="shared" si="3"/>
         <v>0.11245247576161332</v>
       </c>
       <c r="G43" s="15">
@@ -26377,7 +26370,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <f>q340_^2-B44^2</f>
+        <f t="shared" si="2"/>
         <v>0.10926442760928484</v>
       </c>
       <c r="B44" s="15">
@@ -26390,7 +26383,7 @@
         <v>1.5450000000000001E-3</v>
       </c>
       <c r="F44" s="13">
-        <f>q340_^2-G44^2</f>
+        <f t="shared" si="3"/>
         <v>0.11042775944371649</v>
       </c>
       <c r="G44" s="15">
@@ -26405,7 +26398,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <f>q340_^2-B45^2</f>
+        <f t="shared" si="2"/>
         <v>0.1070477742643426</v>
       </c>
       <c r="B45" s="15">
@@ -26418,7 +26411,7 @@
         <v>9.6500000000000004E-4</v>
       </c>
       <c r="F45" s="13">
-        <f>q340_^2-G45^2</f>
+        <f t="shared" si="3"/>
         <v>0.1080664414219053</v>
       </c>
       <c r="G45" s="15">
@@ -26433,7 +26426,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <f>q340_^2-B46^2</f>
+        <f t="shared" si="2"/>
         <v>0.10478820884207529</v>
       </c>
       <c r="B46" s="15">
@@ -26446,7 +26439,7 @@
         <v>1.2649999999999998E-3</v>
       </c>
       <c r="F46" s="13">
-        <f>q340_^2-G46^2</f>
+        <f t="shared" si="3"/>
         <v>0.10590269014593538</v>
       </c>
       <c r="G46" s="15">
@@ -26461,7 +26454,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <f>q340_^2-B47^2</f>
+        <f t="shared" si="2"/>
         <v>0.10247914859962949</v>
       </c>
       <c r="B47" s="15">
@@ -26474,7 +26467,7 @@
         <v>2.1249999999999997E-3</v>
       </c>
       <c r="F47" s="13">
-        <f>q340_^2-G47^2</f>
+        <f t="shared" si="3"/>
         <v>0.10357057141934076</v>
       </c>
       <c r="G47" s="15">
@@ -26489,7 +26482,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <f>q340_^2-B48^2</f>
+        <f t="shared" si="2"/>
         <v>0.10008078022357692</v>
       </c>
       <c r="B48" s="15">
@@ -26502,7 +26495,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="F48" s="13">
-        <f>q340_^2-G48^2</f>
+        <f t="shared" si="3"/>
         <v>0.10126764271302081</v>
       </c>
       <c r="G48" s="15">
@@ -26517,7 +26510,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <f>q340_^2-B49^2</f>
+        <f t="shared" si="2"/>
         <v>9.7530986858306093E-2</v>
       </c>
       <c r="B49" s="15">
@@ -26530,7 +26523,7 @@
         <v>2.2599999999999999E-3</v>
       </c>
       <c r="F49" s="13">
-        <f>q340_^2-G49^2</f>
+        <f t="shared" si="3"/>
         <v>9.8596165072687258E-2</v>
       </c>
       <c r="G49" s="15">
@@ -26545,7 +26538,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <f>q340_^2-B50^2</f>
+        <f t="shared" si="2"/>
         <v>9.4928066230086317E-2</v>
       </c>
       <c r="B50" s="15">
@@ -26558,7 +26551,7 @@
         <v>1.6899999999999997E-3</v>
       </c>
       <c r="F50" s="13">
-        <f>q340_^2-G50^2</f>
+        <f t="shared" si="3"/>
         <v>9.612036330049907E-2</v>
       </c>
       <c r="G50" s="15">
@@ -26573,7 +26566,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <f>q340_^2-B51^2</f>
+        <f t="shared" si="2"/>
         <v>9.2433226412176564E-2</v>
       </c>
       <c r="B51" s="15">
@@ -26586,7 +26579,7 @@
         <v>1.4349999999999999E-3</v>
       </c>
       <c r="F51" s="13">
-        <f>q340_^2-G51^2</f>
+        <f t="shared" si="3"/>
         <v>9.3406758165191145E-2</v>
       </c>
       <c r="G51" s="15">
@@ -26601,7 +26594,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <f>q340_^2-B52^2</f>
+        <f t="shared" si="2"/>
         <v>8.9724717958566944E-2</v>
       </c>
       <c r="B52" s="15">
@@ -26614,7 +26607,7 @@
         <v>2.7899999999999999E-3</v>
       </c>
       <c r="F52" s="13">
-        <f>q340_^2-G52^2</f>
+        <f t="shared" si="3"/>
         <v>9.085448706184171E-2</v>
       </c>
       <c r="G52" s="15">
@@ -26629,7 +26622,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <f>q340_^2-B53^2</f>
+        <f t="shared" si="2"/>
         <v>8.7037698666792784E-2</v>
       </c>
       <c r="B53" s="15">
@@ -26642,7 +26635,7 @@
         <v>3.0899999999999999E-3</v>
       </c>
       <c r="F53" s="13">
-        <f>q340_^2-G53^2</f>
+        <f t="shared" si="3"/>
         <v>8.8200707474790044E-2</v>
       </c>
       <c r="G53" s="15">
@@ -26657,7 +26650,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <f>q340_^2-B54^2</f>
+        <f t="shared" si="2"/>
         <v>8.4255661146906038E-2</v>
       </c>
       <c r="B54" s="15">
@@ -26670,7 +26663,7 @@
         <v>2.65E-3</v>
       </c>
       <c r="F54" s="13">
-        <f>q340_^2-G54^2</f>
+        <f t="shared" si="3"/>
         <v>8.5546278749383572E-2</v>
       </c>
       <c r="G54" s="15">
@@ -26685,7 +26678,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <f>q340_^2-B55^2</f>
+        <f t="shared" si="2"/>
         <v>8.1560506851691222E-2</v>
       </c>
       <c r="B55" s="15">
@@ -26698,7 +26691,7 @@
         <v>3.0249999999999999E-3</v>
       </c>
       <c r="F55" s="13">
-        <f>q340_^2-G55^2</f>
+        <f t="shared" si="3"/>
         <v>8.2544817441325094E-2</v>
       </c>
       <c r="G55" s="15">
@@ -26713,7 +26706,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <f>q340_^2-B56^2</f>
+        <f t="shared" si="2"/>
         <v>7.873127249440437E-2</v>
       </c>
       <c r="B56" s="15">
@@ -26726,7 +26719,7 @@
         <v>3.2049999999999999E-3</v>
       </c>
       <c r="F56" s="13">
-        <f>q340_^2-G56^2</f>
+        <f t="shared" si="3"/>
         <v>7.9772587209086407E-2</v>
       </c>
       <c r="G56" s="15">
@@ -26757,7 +26750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F4E16C-BEF9-934E-84C0-7F46A5543B77}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="137" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -26766,27 +26759,27 @@
     <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="11" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="15"/>
-    <col min="4" max="4" width="10.83203125" style="17"/>
+    <col min="4" max="4" width="10.83203125" style="16"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="13"/>
     <col min="7" max="9" width="8.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="15">
         <f>q3550_</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="15">
@@ -26821,7 +26814,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
-        <f>q3550_^2-B3^2</f>
+        <f t="shared" ref="A3:A34" si="0">q3550_^2-B3^2</f>
         <v>0.30139419903714271</v>
       </c>
       <c r="B3" s="15">
@@ -26830,11 +26823,11 @@
       <c r="C3" s="15">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>3.5999999999999997E-4</v>
       </c>
       <c r="F3" s="13">
-        <f>q3550_^2-G3^2</f>
+        <f t="shared" ref="F3:F34" si="1">q3550_^2-G3^2</f>
         <v>0.30115042956775007</v>
       </c>
       <c r="G3" s="15">
@@ -26849,7 +26842,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <f>q3550_^2-B4^2</f>
+        <f t="shared" si="0"/>
         <v>0.30101702303088645</v>
       </c>
       <c r="B4" s="15">
@@ -26858,11 +26851,11 @@
       <c r="C4" s="15">
         <v>5.9500000000000004E-4</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="F4" s="13">
-        <f>q3550_^2-G4^2</f>
+        <f t="shared" si="1"/>
         <v>0.30073683990000005</v>
       </c>
       <c r="G4" s="15">
@@ -26877,7 +26870,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
-        <f>q3550_^2-B5^2</f>
+        <f t="shared" si="0"/>
         <v>0.30061331861990565</v>
       </c>
       <c r="B5" s="15">
@@ -26886,11 +26879,11 @@
       <c r="C5" s="15">
         <v>6.1000000000000008E-4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="F5" s="13">
-        <f>q3550_^2-G5^2</f>
+        <f t="shared" si="1"/>
         <v>0.30031822260975005</v>
       </c>
       <c r="G5" s="15">
@@ -26905,7 +26898,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <f>q3550_^2-B6^2</f>
+        <f t="shared" si="0"/>
         <v>0.30008390366468118</v>
       </c>
       <c r="B6" s="15">
@@ -26914,11 +26907,11 @@
       <c r="C6" s="15">
         <v>7.3000000000000007E-4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="F6" s="13">
-        <f>q3550_^2-G6^2</f>
+        <f t="shared" si="1"/>
         <v>0.29978235883900006</v>
       </c>
       <c r="G6" s="15">
@@ -26933,7 +26926,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <f>q3550_^2-B7^2</f>
+        <f t="shared" si="0"/>
         <v>0.2996710023116444</v>
       </c>
       <c r="B7" s="15">
@@ -26942,11 +26935,11 @@
       <c r="C7" s="15">
         <v>1.0950000000000001E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>3.0499999999999999E-4</v>
       </c>
       <c r="F7" s="13">
-        <f>q3550_^2-G7^2</f>
+        <f t="shared" si="1"/>
         <v>0.29932642410975002</v>
       </c>
       <c r="G7" s="15">
@@ -26961,7 +26954,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <f>q3550_^2-B8^2</f>
+        <f t="shared" si="0"/>
         <v>0.29909122547140249</v>
       </c>
       <c r="B8" s="15">
@@ -26970,11 +26963,11 @@
       <c r="C8" s="15">
         <v>1.325E-3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>4.75E-4</v>
       </c>
       <c r="F8" s="13">
-        <f>q3550_^2-G8^2</f>
+        <f t="shared" si="1"/>
         <v>0.29870734935975007</v>
       </c>
       <c r="G8" s="15">
@@ -26989,7 +26982,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <f>q3550_^2-B9^2</f>
+        <f t="shared" si="0"/>
         <v>0.29843297641083166</v>
       </c>
       <c r="B9" s="15">
@@ -26998,11 +26991,11 @@
       <c r="C9" s="15">
         <v>1.245E-3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>5.1500000000000005E-4</v>
       </c>
       <c r="F9" s="13">
-        <f>q3550_^2-G9^2</f>
+        <f t="shared" si="1"/>
         <v>0.29808227084400007</v>
       </c>
       <c r="G9" s="15">
@@ -27017,7 +27010,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <f>q3550_^2-B10^2</f>
+        <f t="shared" si="0"/>
         <v>0.29783049412043289</v>
       </c>
       <c r="B10" s="15">
@@ -27026,11 +27019,11 @@
       <c r="C10" s="15">
         <v>1.5E-3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>3.3E-4</v>
       </c>
       <c r="F10" s="13">
-        <f>q3550_^2-G10^2</f>
+        <f t="shared" si="1"/>
         <v>0.29734655484375005</v>
       </c>
       <c r="G10" s="15">
@@ -27045,7 +27038,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <f>q3550_^2-B11^2</f>
+        <f t="shared" si="0"/>
         <v>0.29714230919506968</v>
       </c>
       <c r="B11" s="15">
@@ -27054,11 +27047,11 @@
       <c r="C11" s="15">
         <v>1.73E-3</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>4.3000000000000004E-4</v>
       </c>
       <c r="F11" s="13">
-        <f>q3550_^2-G11^2</f>
+        <f t="shared" si="1"/>
         <v>0.29657846664775006</v>
       </c>
       <c r="G11" s="15">
@@ -27073,7 +27066,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <f>q3550_^2-B12^2</f>
+        <f t="shared" si="0"/>
         <v>0.29635961368099062</v>
       </c>
       <c r="B12" s="15">
@@ -27082,11 +27075,11 @@
       <c r="C12" s="15">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="F12" s="13">
-        <f>q3550_^2-G12^2</f>
+        <f t="shared" si="1"/>
         <v>0.29584609038775006</v>
       </c>
       <c r="G12" s="15">
@@ -27101,7 +27094,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <f>q3550_^2-B13^2</f>
+        <f t="shared" si="0"/>
         <v>0.29557315708651105</v>
       </c>
       <c r="B13" s="15">
@@ -27110,11 +27103,11 @@
       <c r="C13" s="15">
         <v>3.0850000000000001E-3</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>2.6500000000000004E-4</v>
       </c>
       <c r="F13" s="13">
-        <f>q3550_^2-G13^2</f>
+        <f t="shared" si="1"/>
         <v>0.29499212409600006</v>
       </c>
       <c r="G13" s="15">
@@ -27129,7 +27122,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <f>q3550_^2-B14^2</f>
+        <f t="shared" si="0"/>
         <v>0.29471189816566468</v>
       </c>
       <c r="B14" s="15">
@@ -27138,11 +27131,11 @@
       <c r="C14" s="15">
         <v>3.31E-3</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F14" s="13">
-        <f>q3550_^2-G14^2</f>
+        <f t="shared" si="1"/>
         <v>0.29401169457600007</v>
       </c>
       <c r="G14" s="15">
@@ -27157,7 +27150,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <f>q3550_^2-B15^2</f>
+        <f t="shared" si="0"/>
         <v>0.2937788410153388</v>
       </c>
       <c r="B15" s="15">
@@ -27166,11 +27159,11 @@
       <c r="C15" s="15">
         <v>3.3700000000000002E-3</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F15" s="13">
-        <f>q3550_^2-G15^2</f>
+        <f t="shared" si="1"/>
         <v>0.29310593207100005</v>
       </c>
       <c r="G15" s="15">
@@ -27185,7 +27178,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <f>q3550_^2-B16^2</f>
+        <f t="shared" si="0"/>
         <v>0.29284611498962271</v>
       </c>
       <c r="B16" s="15">
@@ -27194,11 +27187,11 @@
       <c r="C16" s="15">
         <v>4.065E-3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="F16" s="13">
-        <f>q3550_^2-G16^2</f>
+        <f t="shared" si="1"/>
         <v>0.29206302791775007</v>
       </c>
       <c r="G16" s="15">
@@ -27213,7 +27206,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <f>q3550_^2-B17^2</f>
+        <f t="shared" si="0"/>
         <v>0.29188958502710849</v>
       </c>
       <c r="B17" s="15">
@@ -27222,11 +27215,11 @@
       <c r="C17" s="15">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>8.200000000000002E-4</v>
       </c>
       <c r="F17" s="13">
-        <f>q3550_^2-G17^2</f>
+        <f t="shared" si="1"/>
         <v>0.29115050684400007</v>
       </c>
       <c r="G17" s="15">
@@ -27241,7 +27234,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <f>q3550_^2-B18^2</f>
+        <f t="shared" si="0"/>
         <v>0.29078809518798426</v>
       </c>
       <c r="B18" s="15">
@@ -27250,11 +27243,11 @@
       <c r="C18" s="15">
         <v>4.5700000000000003E-3</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>8.7000000000000011E-4</v>
       </c>
       <c r="F18" s="13">
-        <f>q3550_^2-G18^2</f>
+        <f t="shared" si="1"/>
         <v>0.29004845301775006</v>
       </c>
       <c r="G18" s="15">
@@ -27269,7 +27262,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <f>q3550_^2-B19^2</f>
+        <f t="shared" si="0"/>
         <v>0.2897430223059908</v>
       </c>
       <c r="B19" s="15">
@@ -27278,11 +27271,11 @@
       <c r="C19" s="15">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>5.2000000000000006E-4</v>
       </c>
       <c r="F19" s="13">
-        <f>q3550_^2-G19^2</f>
+        <f t="shared" si="1"/>
         <v>0.28885262031600006</v>
       </c>
       <c r="G19" s="15">
@@ -27297,7 +27290,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f>q3550_^2-B20^2</f>
+        <f t="shared" si="0"/>
         <v>0.28852813454614312</v>
       </c>
       <c r="B20" s="15">
@@ -27306,11 +27299,11 @@
       <c r="C20" s="15">
         <v>5.5849999999999997E-3</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>4.9500000000000021E-4</v>
       </c>
       <c r="F20" s="13">
-        <f>q3550_^2-G20^2</f>
+        <f t="shared" si="1"/>
         <v>0.28762527055600007</v>
       </c>
       <c r="G20" s="15">
@@ -27325,7 +27318,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f>q3550_^2-B21^2</f>
+        <f t="shared" si="0"/>
         <v>0.28738086228936205</v>
       </c>
       <c r="B21" s="15">
@@ -27334,11 +27327,11 @@
       <c r="C21" s="15">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="F21" s="13">
-        <f>q3550_^2-G21^2</f>
+        <f t="shared" si="1"/>
         <v>0.28632194075100004</v>
       </c>
       <c r="G21" s="15">
@@ -27353,7 +27346,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <f>q3550_^2-B22^2</f>
+        <f t="shared" si="0"/>
         <v>0.28611111954517893</v>
       </c>
       <c r="B22" s="15">
@@ -27362,11 +27355,11 @@
       <c r="C22" s="15">
         <v>5.9199999999999999E-3</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>8.9000000000000017E-4</v>
       </c>
       <c r="F22" s="13">
-        <f>q3550_^2-G22^2</f>
+        <f t="shared" si="1"/>
         <v>0.28502276339775007</v>
       </c>
       <c r="G22" s="15">
@@ -27381,7 +27374,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <f>q3550_^2-B23^2</f>
+        <f t="shared" si="0"/>
         <v>0.28488623658850454</v>
       </c>
       <c r="B23" s="15">
@@ -27390,11 +27383,11 @@
       <c r="C23" s="15">
         <v>6.5449999999999996E-3</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>1.085E-3</v>
       </c>
       <c r="F23" s="13">
-        <f>q3550_^2-G23^2</f>
+        <f t="shared" si="1"/>
         <v>0.28359154993600005</v>
       </c>
       <c r="G23" s="15">
@@ -27409,7 +27402,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <f>q3550_^2-B24^2</f>
+        <f t="shared" si="0"/>
         <v>0.2834521697159964</v>
       </c>
       <c r="B24" s="15">
@@ -27418,11 +27411,11 @@
       <c r="C24" s="15">
         <v>6.4550000000000007E-3</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>1.0149999999999998E-3</v>
       </c>
       <c r="F24" s="13">
-        <f>q3550_^2-G24^2</f>
+        <f t="shared" si="1"/>
         <v>0.28241416609975006</v>
       </c>
       <c r="G24" s="15">
@@ -27437,7 +27430,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f>q3550_^2-B25^2</f>
+        <f t="shared" si="0"/>
         <v>0.28198950960377445</v>
       </c>
       <c r="B25" s="15">
@@ -27446,11 +27439,11 @@
       <c r="C25" s="15">
         <v>6.9100000000000003E-3</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>1.1200000000000003E-3</v>
       </c>
       <c r="F25" s="13">
-        <f>q3550_^2-G25^2</f>
+        <f t="shared" si="1"/>
         <v>0.28102397679100005</v>
       </c>
       <c r="G25" s="15">
@@ -27465,7 +27458,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f>q3550_^2-B26^2</f>
+        <f t="shared" si="0"/>
         <v>0.2805487202284439</v>
       </c>
       <c r="B26" s="15">
@@ -27474,11 +27467,11 @@
       <c r="C26" s="15">
         <v>7.1249999999999994E-3</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>1.2749999999999997E-3</v>
       </c>
       <c r="F26" s="13">
-        <f>q3550_^2-G26^2</f>
+        <f t="shared" si="1"/>
         <v>0.27937866875100004</v>
       </c>
       <c r="G26" s="15">
@@ -27493,7 +27486,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f>q3550_^2-B27^2</f>
+        <f t="shared" si="0"/>
         <v>0.27915278080044476</v>
       </c>
       <c r="B27" s="15">
@@ -27502,11 +27495,11 @@
       <c r="C27" s="15">
         <v>7.3550000000000004E-3</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>1.0849999999999996E-3</v>
       </c>
       <c r="F27" s="13">
-        <f>q3550_^2-G27^2</f>
+        <f t="shared" si="1"/>
         <v>0.27778627356400004</v>
       </c>
       <c r="G27" s="15">
@@ -27521,7 +27514,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f>q3550_^2-B28^2</f>
+        <f t="shared" si="0"/>
         <v>0.27745822156925393</v>
       </c>
       <c r="B28" s="15">
@@ -27530,11 +27523,11 @@
       <c r="C28" s="15">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>1.0399999999999997E-3</v>
       </c>
       <c r="F28" s="13">
-        <f>q3550_^2-G28^2</f>
+        <f t="shared" si="1"/>
         <v>0.27610414897600005</v>
       </c>
       <c r="G28" s="15">
@@ -27549,7 +27542,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <f>q3550_^2-B29^2</f>
+        <f t="shared" si="0"/>
         <v>0.27608630697559006</v>
       </c>
       <c r="B29" s="15">
@@ -27558,11 +27551,11 @@
       <c r="C29" s="15">
         <v>7.7450000000000001E-3</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>1.5049999999999998E-3</v>
       </c>
       <c r="F29" s="13">
-        <f>q3550_^2-G29^2</f>
+        <f t="shared" si="1"/>
         <v>0.27456589177500007</v>
       </c>
       <c r="G29" s="15">
@@ -27577,7 +27570,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <f>q3550_^2-B30^2</f>
+        <f t="shared" si="0"/>
         <v>0.27449132661327363</v>
       </c>
       <c r="B30" s="15">
@@ -27586,11 +27579,11 @@
       <c r="C30" s="15">
         <v>7.729999999999999E-3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>1.0999999999999998E-3</v>
       </c>
       <c r="F30" s="13">
-        <f>q3550_^2-G30^2</f>
+        <f t="shared" si="1"/>
         <v>0.27293096210775003</v>
       </c>
       <c r="G30" s="15">
@@ -27605,7 +27598,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f>q3550_^2-B31^2</f>
+        <f t="shared" si="0"/>
         <v>0.2727534190715421</v>
       </c>
       <c r="B31" s="15">
@@ -27614,11 +27607,11 @@
       <c r="C31" s="15">
         <v>7.685E-3</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>1.4749999999999997E-3</v>
       </c>
       <c r="F31" s="13">
-        <f>q3550_^2-G31^2</f>
+        <f t="shared" si="1"/>
         <v>0.27100297932400003</v>
       </c>
       <c r="G31" s="15">
@@ -27633,7 +27626,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f>q3550_^2-B32^2</f>
+        <f t="shared" si="0"/>
         <v>0.27109142191330909</v>
       </c>
       <c r="B32" s="15">
@@ -27642,11 +27635,11 @@
       <c r="C32" s="15">
         <v>7.2700000000000004E-3</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>1.5499999999999997E-3</v>
       </c>
       <c r="F32" s="13">
-        <f>q3550_^2-G32^2</f>
+        <f t="shared" si="1"/>
         <v>0.26923206397500005</v>
       </c>
       <c r="G32" s="15">
@@ -27661,7 +27654,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <f>q3550_^2-B33^2</f>
+        <f t="shared" si="0"/>
         <v>0.26922923835588969</v>
       </c>
       <c r="B33" s="15">
@@ -27670,11 +27663,11 @@
       <c r="C33" s="15">
         <v>6.5400000000000007E-3</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="F33" s="13">
-        <f>q3550_^2-G33^2</f>
+        <f t="shared" si="1"/>
         <v>0.26741196687600005</v>
       </c>
       <c r="G33" s="15">
@@ -27689,7 +27682,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f>q3550_^2-B34^2</f>
+        <f t="shared" si="0"/>
         <v>0.26737689646913365</v>
       </c>
       <c r="B34" s="15">
@@ -27698,11 +27691,11 @@
       <c r="C34" s="15">
         <v>5.8950000000000001E-3</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>1.6249999999999997E-3</v>
       </c>
       <c r="F34" s="13">
-        <f>q3550_^2-G34^2</f>
+        <f t="shared" si="1"/>
         <v>0.26574094919775004</v>
       </c>
       <c r="G34" s="15">
@@ -27717,7 +27710,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f>q3550_^2-B35^2</f>
+        <f t="shared" ref="A35:A66" si="2">q3550_^2-B35^2</f>
         <v>0.26573094587188556</v>
       </c>
       <c r="B35" s="15">
@@ -27726,11 +27719,11 @@
       <c r="C35" s="15">
         <v>5.8600000000000006E-3</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <v>1.5899999999999998E-3</v>
       </c>
       <c r="F35" s="13">
-        <f>q3550_^2-G35^2</f>
+        <f t="shared" ref="F35:F66" si="3">q3550_^2-G35^2</f>
         <v>0.26362083631600003</v>
       </c>
       <c r="G35" s="15">
@@ -27745,7 +27738,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <f>q3550_^2-B36^2</f>
+        <f t="shared" si="2"/>
         <v>0.26379394013334678</v>
       </c>
       <c r="B36" s="15">
@@ -27754,11 +27747,11 @@
       <c r="C36" s="15">
         <v>6.045E-3</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>1.0550000000000004E-3</v>
       </c>
       <c r="F36" s="13">
-        <f>q3550_^2-G36^2</f>
+        <f t="shared" si="3"/>
         <v>0.26164871831100006</v>
       </c>
       <c r="G36" s="15">
@@ -27773,7 +27766,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <f>q3550_^2-B37^2</f>
+        <f t="shared" si="2"/>
         <v>0.26152806830242536</v>
       </c>
       <c r="B37" s="15">
@@ -27782,11 +27775,11 @@
       <c r="C37" s="15">
         <v>5.8449999999999995E-3</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>1.6450000000000002E-3</v>
       </c>
       <c r="F37" s="13">
-        <f>q3550_^2-G37^2</f>
+        <f t="shared" si="3"/>
         <v>0.25955966437975009</v>
       </c>
       <c r="G37" s="15">
@@ -27801,7 +27794,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f>q3550_^2-B38^2</f>
+        <f t="shared" si="2"/>
         <v>0.25947145212843525</v>
       </c>
       <c r="B38" s="15">
@@ -27810,11 +27803,11 @@
       <c r="C38" s="15">
         <v>5.3150000000000003E-3</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>1.495E-3</v>
       </c>
       <c r="F38" s="13">
-        <f>q3550_^2-G38^2</f>
+        <f t="shared" si="3"/>
         <v>0.25763631208975002</v>
       </c>
       <c r="G38" s="15">
@@ -27829,7 +27822,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <f>q3550_^2-B39^2</f>
+        <f t="shared" si="2"/>
         <v>0.25779299470298878</v>
       </c>
       <c r="B39" s="15">
@@ -27838,11 +27831,11 @@
       <c r="C39" s="15">
         <v>5.5250000000000004E-3</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="F39" s="13">
-        <f>q3550_^2-G39^2</f>
+        <f t="shared" si="3"/>
         <v>0.25558638937975003</v>
       </c>
       <c r="G39" s="15">
@@ -27857,7 +27850,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f>q3550_^2-B40^2</f>
+        <f t="shared" si="2"/>
         <v>0.25539992614902129</v>
       </c>
       <c r="B40" s="15">
@@ -27866,11 +27859,11 @@
       <c r="C40" s="15">
         <v>5.8449999999999995E-3</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <v>1.225E-3</v>
       </c>
       <c r="F40" s="13">
-        <f>q3550_^2-G40^2</f>
+        <f t="shared" si="3"/>
         <v>0.25330919590000006</v>
       </c>
       <c r="G40" s="15">
@@ -27885,7 +27878,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <f>q3550_^2-B41^2</f>
+        <f t="shared" si="2"/>
         <v>0.2533854190187792</v>
       </c>
       <c r="B41" s="15">
@@ -27894,11 +27887,11 @@
       <c r="C41" s="15">
         <v>5.2750000000000002E-3</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>1.1549999999999998E-3</v>
       </c>
       <c r="F41" s="13">
-        <f>q3550_^2-G41^2</f>
+        <f t="shared" si="3"/>
         <v>0.25078355484375003</v>
       </c>
       <c r="G41" s="15">
@@ -27913,7 +27906,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <f>q3550_^2-B42^2</f>
+        <f t="shared" si="2"/>
         <v>0.25132458916111355</v>
       </c>
       <c r="B42" s="15">
@@ -27922,11 +27915,11 @@
       <c r="C42" s="15">
         <v>4.5950000000000001E-3</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>1.1050000000000001E-3</v>
       </c>
       <c r="F42" s="13">
-        <f>q3550_^2-G42^2</f>
+        <f t="shared" si="3"/>
         <v>0.24875067807900003</v>
       </c>
       <c r="G42" s="15">
@@ -27941,7 +27934,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <f>q3550_^2-B43^2</f>
+        <f t="shared" si="2"/>
         <v>0.24880671286366565</v>
       </c>
       <c r="B43" s="15">
@@ -27950,11 +27943,11 @@
       <c r="C43" s="15">
         <v>5.45E-3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>1.2900000000000003E-3</v>
       </c>
       <c r="F43" s="13">
-        <f>q3550_^2-G43^2</f>
+        <f t="shared" si="3"/>
         <v>0.24625276277500002</v>
       </c>
       <c r="G43" s="15">
@@ -27969,7 +27962,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <f>q3550_^2-B44^2</f>
+        <f t="shared" si="2"/>
         <v>0.24629779884377032</v>
       </c>
       <c r="B44" s="15">
@@ -27978,11 +27971,11 @@
       <c r="C44" s="15">
         <v>3.5200000000000001E-3</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>1.2600000000000003E-3</v>
       </c>
       <c r="F44" s="13">
-        <f>q3550_^2-G44^2</f>
+        <f t="shared" si="3"/>
         <v>0.24374151279775005</v>
       </c>
       <c r="G44" s="15">
@@ -27997,7 +27990,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <f>q3550_^2-B45^2</f>
+        <f t="shared" si="2"/>
         <v>0.24434212174277853</v>
       </c>
       <c r="B45" s="15">
@@ -28006,11 +27999,11 @@
       <c r="C45" s="15">
         <v>4.2550000000000001E-3</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>1.2149999999999999E-3</v>
       </c>
       <c r="F45" s="13">
-        <f>q3550_^2-G45^2</f>
+        <f t="shared" si="3"/>
         <v>0.24140723826975005</v>
       </c>
       <c r="G45" s="15">
@@ -28025,7 +28018,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <f>q3550_^2-B46^2</f>
+        <f t="shared" si="2"/>
         <v>0.24183809882852708</v>
       </c>
       <c r="B46" s="15">
@@ -28034,11 +28027,11 @@
       <c r="C46" s="15">
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>1.1500000000000002E-3</v>
       </c>
       <c r="F46" s="13">
-        <f>q3550_^2-G46^2</f>
+        <f t="shared" si="3"/>
         <v>0.23908668760000007</v>
       </c>
       <c r="G46" s="15">
@@ -28053,7 +28046,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <f>q3550_^2-B47^2</f>
+        <f t="shared" si="2"/>
         <v>0.23925369388321233</v>
       </c>
       <c r="B47" s="15">
@@ -28062,11 +28055,11 @@
       <c r="C47" s="15">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>1.2499999999999998E-3</v>
       </c>
       <c r="F47" s="13">
-        <f>q3550_^2-G47^2</f>
+        <f t="shared" si="3"/>
         <v>0.23618035932400003</v>
       </c>
       <c r="G47" s="15">
@@ -28081,7 +28074,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <f>q3550_^2-B48^2</f>
+        <f t="shared" si="2"/>
         <v>0.23692966956239819</v>
       </c>
       <c r="B48" s="15">
@@ -28090,11 +28083,11 @@
       <c r="C48" s="15">
         <v>3.13E-3</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="F48" s="13">
-        <f>q3550_^2-G48^2</f>
+        <f t="shared" si="3"/>
         <v>0.23347005703975005</v>
       </c>
       <c r="G48" s="15">
@@ -28109,7 +28102,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <f>q3550_^2-B49^2</f>
+        <f t="shared" si="2"/>
         <v>0.23426531917740021</v>
       </c>
       <c r="B49" s="15">
@@ -28118,11 +28111,11 @@
       <c r="C49" s="15">
         <v>4.2449999999999996E-3</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>1.165E-3</v>
       </c>
       <c r="F49" s="13">
-        <f>q3550_^2-G49^2</f>
+        <f t="shared" si="3"/>
         <v>0.23086160393775007</v>
       </c>
       <c r="G49" s="15">
@@ -28137,7 +28130,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <f>q3550_^2-B50^2</f>
+        <f t="shared" si="2"/>
         <v>0.23161369125897066</v>
       </c>
       <c r="B50" s="15">
@@ -28146,11 +28139,11 @@
       <c r="C50" s="15">
         <v>3.3799999999999998E-3</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="16">
         <v>1.2499999999999998E-3</v>
       </c>
       <c r="F50" s="13">
-        <f>q3550_^2-G50^2</f>
+        <f t="shared" si="3"/>
         <v>0.22829578837975006</v>
       </c>
       <c r="G50" s="15">
@@ -28165,7 +28158,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <f>q3550_^2-B51^2</f>
+        <f t="shared" si="2"/>
         <v>0.22900579539027596</v>
       </c>
       <c r="B51" s="15">
@@ -28174,11 +28167,11 @@
       <c r="C51" s="15">
         <v>2.715E-3</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>1.2949999999999997E-3</v>
       </c>
       <c r="F51" s="13">
-        <f>q3550_^2-G51^2</f>
+        <f t="shared" si="3"/>
         <v>0.22555201397500008</v>
       </c>
       <c r="G51" s="15">
@@ -28193,7 +28186,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <f>q3550_^2-B52^2</f>
+        <f t="shared" si="2"/>
         <v>0.22607030599605937</v>
       </c>
       <c r="B52" s="15">
@@ -28202,11 +28195,11 @@
       <c r="C52" s="15">
         <v>1.815E-3</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <v>1.2949999999999999E-3</v>
       </c>
       <c r="F52" s="13">
-        <f>q3550_^2-G52^2</f>
+        <f t="shared" si="3"/>
         <v>0.22260191109375002</v>
       </c>
       <c r="G52" s="15">
@@ -28221,7 +28214,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <f>q3550_^2-B53^2</f>
+        <f t="shared" si="2"/>
         <v>0.22324998362686055</v>
       </c>
       <c r="B53" s="15">
@@ -28230,11 +28223,11 @@
       <c r="C53" s="15">
         <v>1.825E-3</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="16">
         <v>1.335E-3</v>
       </c>
       <c r="F53" s="13">
-        <f>q3550_^2-G53^2</f>
+        <f t="shared" si="3"/>
         <v>0.21985639951600006</v>
       </c>
       <c r="G53" s="15">
@@ -28249,7 +28242,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <f>q3550_^2-B54^2</f>
+        <f t="shared" si="2"/>
         <v>0.22014244188262433</v>
       </c>
       <c r="B54" s="15">
@@ -28258,11 +28251,11 @@
       <c r="C54" s="15">
         <v>1.8499999999999999E-3</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <v>1.3799999999999999E-3</v>
       </c>
       <c r="F54" s="13">
-        <f>q3550_^2-G54^2</f>
+        <f t="shared" si="3"/>
         <v>0.21704434041600001</v>
       </c>
       <c r="G54" s="15">
@@ -28277,7 +28270,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <f>q3550_^2-B55^2</f>
+        <f t="shared" si="2"/>
         <v>0.21734929504817893</v>
       </c>
       <c r="B55" s="15">
@@ -28286,11 +28279,11 @@
       <c r="C55" s="15">
         <v>2.8600000000000001E-3</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="16">
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="F55" s="13">
-        <f>q3550_^2-G55^2</f>
+        <f t="shared" si="3"/>
         <v>0.21431832188400005</v>
       </c>
       <c r="G55" s="15">
@@ -28305,7 +28298,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <f>q3550_^2-B56^2</f>
+        <f t="shared" si="2"/>
         <v>0.21454755864456365</v>
       </c>
       <c r="B56" s="15">
@@ -28314,11 +28307,11 @@
       <c r="C56" s="15">
         <v>2.2550000000000001E-3</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <v>1.6849999999999999E-3</v>
       </c>
       <c r="F56" s="13">
-        <f>q3550_^2-G56^2</f>
+        <f t="shared" si="3"/>
         <v>0.21101189910000004</v>
       </c>
       <c r="G56" s="15">
@@ -28333,7 +28326,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <f>q3550_^2-B57^2</f>
+        <f t="shared" si="2"/>
         <v>0.21156258308515846</v>
       </c>
       <c r="B57" s="15">
@@ -28342,11 +28335,11 @@
       <c r="C57" s="15">
         <v>1.9449999999999999E-3</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <v>1.6249999999999999E-3</v>
       </c>
       <c r="F57" s="13">
-        <f>q3550_^2-G57^2</f>
+        <f t="shared" si="3"/>
         <v>0.20775762099375006</v>
       </c>
       <c r="G57" s="15">
@@ -28361,7 +28354,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <f>q3550_^2-B58^2</f>
+        <f t="shared" si="2"/>
         <v>0.20853901403448322</v>
       </c>
       <c r="B58" s="15">
@@ -28370,11 +28363,11 @@
       <c r="C58" s="15">
         <v>1.98E-3</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>1.8400000000000001E-3</v>
       </c>
       <c r="F58" s="13">
-        <f>q3550_^2-G58^2</f>
+        <f t="shared" si="3"/>
         <v>0.20503740390000008</v>
       </c>
       <c r="G58" s="15">
@@ -28389,7 +28382,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <f>q3550_^2-B59^2</f>
+        <f t="shared" si="2"/>
         <v>0.20547739736019272</v>
       </c>
       <c r="B59" s="15">
@@ -28398,11 +28391,11 @@
       <c r="C59" s="15">
         <v>2.2600000000000003E-3</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>2.14E-3</v>
       </c>
       <c r="F59" s="13">
-        <f>q3550_^2-G59^2</f>
+        <f t="shared" si="3"/>
         <v>0.20162102938975002</v>
       </c>
       <c r="G59" s="15">
@@ -28417,7 +28410,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <f>q3550_^2-B60^2</f>
+        <f t="shared" si="2"/>
         <v>0.20230299817119002</v>
       </c>
       <c r="B60" s="15">
@@ -28426,11 +28419,11 @@
       <c r="C60" s="15">
         <v>2.2399999999999998E-3</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>1.8999999999999998E-3</v>
       </c>
       <c r="F60" s="13">
-        <f>q3550_^2-G60^2</f>
+        <f t="shared" si="3"/>
         <v>0.19808991124975003</v>
       </c>
       <c r="G60" s="15">
@@ -28445,7 +28438,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <f>q3550_^2-B61^2</f>
+        <f t="shared" si="2"/>
         <v>0.19903336475871003</v>
       </c>
       <c r="B61" s="15">
@@ -28454,11 +28447,11 @@
       <c r="C61" s="15">
         <v>2.48E-3</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>2.16E-3</v>
       </c>
       <c r="F61" s="13">
-        <f>q3550_^2-G61^2</f>
+        <f t="shared" si="3"/>
         <v>0.19509140844375006</v>
       </c>
       <c r="G61" s="15">
@@ -28473,7 +28466,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <f>q3550_^2-B62^2</f>
+        <f t="shared" si="2"/>
         <v>0.19586664067641693</v>
       </c>
       <c r="B62" s="15">
@@ -28482,11 +28475,11 @@
       <c r="C62" s="15">
         <v>2.5599999999999998E-3</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>2.1099999999999999E-3</v>
       </c>
       <c r="F62" s="13">
-        <f>q3550_^2-G62^2</f>
+        <f t="shared" si="3"/>
         <v>0.19151574155100007</v>
       </c>
       <c r="G62" s="15">
@@ -28501,7 +28494,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <f>q3550_^2-B63^2</f>
+        <f t="shared" si="2"/>
         <v>0.19269159781706138</v>
       </c>
       <c r="B63" s="15">
@@ -28510,11 +28503,11 @@
       <c r="C63" s="15">
         <v>2.2549999999999996E-3</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>2.075E-3</v>
       </c>
       <c r="F63" s="13">
-        <f>q3550_^2-G63^2</f>
+        <f t="shared" si="3"/>
         <v>0.18823200073975002</v>
       </c>
       <c r="G63" s="15">
@@ -28529,7 +28522,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <f>q3550_^2-B64^2</f>
+        <f t="shared" si="2"/>
         <v>0.18894032989408965</v>
       </c>
       <c r="B64" s="15">
@@ -28538,11 +28531,11 @@
       <c r="C64" s="15">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <v>2.4750000000000002E-3</v>
       </c>
       <c r="F64" s="13">
-        <f>q3550_^2-G64^2</f>
+        <f t="shared" si="3"/>
         <v>0.18454862295975005</v>
       </c>
       <c r="G64" s="15">
@@ -28557,7 +28550,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
-        <f>q3550_^2-B65^2</f>
+        <f t="shared" si="2"/>
         <v>0.18579271271258974</v>
       </c>
       <c r="B65" s="15">
@@ -28566,11 +28559,11 @@
       <c r="C65" s="15">
         <v>2.6300000000000004E-3</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>2.15E-3</v>
       </c>
       <c r="F65" s="13">
-        <f>q3550_^2-G65^2</f>
+        <f t="shared" si="3"/>
         <v>0.18105193196400007</v>
       </c>
       <c r="G65" s="15">
@@ -28585,7 +28578,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
-        <f>q3550_^2-B66^2</f>
+        <f t="shared" si="2"/>
         <v>0.18240875312941449</v>
       </c>
       <c r="B66" s="15">
@@ -28594,11 +28587,11 @@
       <c r="C66" s="15">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="F66" s="13">
-        <f>q3550_^2-G66^2</f>
+        <f t="shared" si="3"/>
         <v>0.17749709419375004</v>
       </c>
       <c r="G66" s="15">
@@ -28613,7 +28606,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
-        <f>q3550_^2-B67^2</f>
+        <f t="shared" ref="A67:A98" si="4">q3550_^2-B67^2</f>
         <v>0.17881561295500939</v>
       </c>
       <c r="B67" s="15">
@@ -28622,11 +28615,11 @@
       <c r="C67" s="15">
         <v>2.0399999999999997E-3</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <v>1.9299999999999999E-3</v>
       </c>
       <c r="F67" s="13">
-        <f>q3550_^2-G67^2</f>
+        <f t="shared" ref="F67:F98" si="5">q3550_^2-G67^2</f>
         <v>0.17407416840975004</v>
       </c>
       <c r="G67" s="15">
@@ -28641,7 +28634,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
-        <f>q3550_^2-B68^2</f>
+        <f t="shared" si="4"/>
         <v>0.17530331887330608</v>
       </c>
       <c r="B68" s="15">
@@ -28650,11 +28643,11 @@
       <c r="C68" s="15">
         <v>2.2650000000000001E-3</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>1.325E-3</v>
       </c>
       <c r="F68" s="13">
-        <f>q3550_^2-G68^2</f>
+        <f t="shared" si="5"/>
         <v>0.17048077431975009</v>
       </c>
       <c r="G68" s="15">
@@ -28707,13 +28700,13 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="29">
         <v>0.3</v>
       </c>
       <c r="E1" t="s">
@@ -28724,13 +28717,13 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
     </row>
@@ -28739,13 +28732,13 @@
         <f>$D$1^2-B3^2</f>
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="30">
         <v>0.03</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="30">
         <v>9.3100000000000006E-3</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="30">
         <v>7.2999999999999975E-4</v>
       </c>
       <c r="E3" s="9">
@@ -28758,13 +28751,13 @@
         <f t="shared" ref="A4:A14" si="0">$D$1^2-B4^2</f>
         <v>8.8399999999999992E-2</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="30">
         <v>0.04</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="30">
         <v>1.3045000000000001E-2</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="30">
         <v>9.4500000000000053E-4</v>
       </c>
       <c r="E4" s="9">
@@ -28777,13 +28770,13 @@
         <f t="shared" si="0"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="30">
         <v>0.05</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="30">
         <v>1.7485000000000001E-2</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="30">
         <v>1.2449999999999996E-3</v>
       </c>
       <c r="E5" s="9">
@@ -28796,13 +28789,13 @@
         <f t="shared" si="0"/>
         <v>8.6399999999999991E-2</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="30">
         <v>0.06</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="30">
         <v>1.976E-2</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="30">
         <v>1.3400000000000009E-3</v>
       </c>
       <c r="E6" s="9">
@@ -28815,13 +28808,13 @@
         <f t="shared" si="0"/>
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <v>2.034E-2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>1.3699999999999997E-3</v>
       </c>
       <c r="E7" s="11">
@@ -28834,13 +28827,13 @@
         <f t="shared" si="0"/>
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="30">
         <v>0.08</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="30">
         <v>1.7689999999999997E-2</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="30">
         <v>2.8599999999999997E-3</v>
       </c>
       <c r="E8" s="9">
@@ -28853,13 +28846,13 @@
         <f t="shared" si="0"/>
         <v>8.1900000000000001E-2</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="30">
         <v>0.09</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="30">
         <v>1.44E-2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="30">
         <v>2.3699999999999997E-3</v>
       </c>
       <c r="E9" s="9">
@@ -28872,13 +28865,13 @@
         <f t="shared" si="0"/>
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="30">
         <v>0.1</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
         <v>1.3785E-2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="30">
         <v>1.0950000000000005E-3</v>
       </c>
       <c r="E10" s="9">
@@ -28891,13 +28884,13 @@
         <f t="shared" si="0"/>
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="30">
         <v>0.11</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="30">
         <v>8.8249999999999995E-3</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="30">
         <v>1.8550000000000003E-3</v>
       </c>
       <c r="E11" s="9">
@@ -28910,13 +28903,13 @@
         <f t="shared" si="0"/>
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="30">
         <v>0.12</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="30">
         <v>7.5799999999999999E-3</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="30">
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="E12" s="9">
@@ -28929,13 +28922,13 @@
         <f t="shared" si="0"/>
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="30">
         <v>0.13</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="30">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="30">
         <v>1.2799999999999999E-3</v>
       </c>
       <c r="E13" s="9">
@@ -28948,13 +28941,13 @@
         <f t="shared" si="0"/>
         <v>7.039999999999999E-2</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="30">
         <v>5.4450000000000002E-3</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="30">
         <v>1.2149999999999999E-3</v>
       </c>
       <c r="E14" s="9">
@@ -29002,376 +28995,375 @@
   <cols>
     <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="3" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>0.38</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="5">
         <v>0.14349999999999999</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>0.03</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="9">
         <f>0.938^2+2*0.938*B3-D$1^2+B3^2</f>
         <v>0.79262399999999988</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="5">
         <v>0.14280000000000001</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>0.04</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>1.0950000000000001E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>7.499999999999998E-4</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E21" si="0">0.938^2+2*0.938*B4-D$1^2+B4^2</f>
         <v>0.81208399999999992</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="5">
         <v>0.1419</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>0.05</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>1.2750000000000001E-2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>7.499999999999998E-4</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0.83174399999999982</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="5">
         <v>0.14080000000000001</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>0.06</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>9.0000000000000063E-4</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0.85160399999999992</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="5">
         <v>0.13950000000000001</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0.87166399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>0.08</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1.72E-2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>1.1999999999999997E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0.89192399999999983</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="5">
         <v>0.1363</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>0.09</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1.8149999999999999E-2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>1.15E-3</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0.91238399999999975</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="5">
         <v>0.13439999999999999</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>0.1</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>1.7649999999999999E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>1.3500000000000005E-3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>0.93304399999999987</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="5">
         <v>0.1323</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>0.11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>1.755E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1.2500000000000011E-3</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0.95390399999999997</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="5">
         <v>0.13</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>0.12</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>1.66E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1.1999999999999997E-3</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>0.97496399999999983</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="5">
         <v>0.1275</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>0.13</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>1.4449999999999999E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>1.15E-3</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>0.99622399999999978</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="5">
         <v>0.12479999999999999</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>1.1000000000000003E-3</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>1.0176839999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="5">
         <v>0.12190000000000001</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>0.15</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>1.055E-2</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>1.3500000000000005E-3</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>1.0393439999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="5">
         <v>0.1188</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>0.16</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>1.0612039999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="5">
         <v>0.11549999999999999</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>0.17</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>1.1000000000000003E-3</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>1.0832639999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="5">
         <v>0.112</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>0.18</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>1.1055239999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="5">
         <v>0.10830000000000001</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>0.19</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>4.9499999999999995E-3</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>9.4999999999999989E-4</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>1.1279839999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="5">
         <v>0.10439999999999999</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>0.2</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>1.1506439999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="5">
         <v>0.1003</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>0.21</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>1.1735039999999997</v>
       </c>
@@ -29396,14 +29388,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>0.38</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -29411,31 +29403,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="5">
         <v>0.14349999999999999</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>0.03</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>1.0055000000000001E-2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>5.7499999999999999E-4</v>
       </c>
       <c r="E3" s="12">
@@ -29443,16 +29435,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="5">
         <v>0.14280000000000001</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>0.04</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>1.0149999999999999E-2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>6.100000000000003E-4</v>
       </c>
       <c r="E4" s="12">
@@ -29460,16 +29452,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="5">
         <v>0.1419</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>0.05</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>1.329E-2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>7.4000000000000021E-4</v>
       </c>
       <c r="E5" s="12">
@@ -29477,16 +29469,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="5">
         <v>0.14080000000000001</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>0.06</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>1.6555E-2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>8.6500000000000118E-4</v>
       </c>
       <c r="E6" s="12">
@@ -29494,16 +29486,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="5">
         <v>0.13950000000000001</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>1.9275E-2</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>1.0249999999999999E-3</v>
       </c>
       <c r="E7" s="12">
@@ -29511,16 +29503,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>0.08</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>2.1644999999999998E-2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1.2149999999999991E-3</v>
       </c>
       <c r="E8" s="12">
@@ -29528,16 +29520,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="5">
         <v>0.1363</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>0.09</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>2.2734999999999998E-2</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>1.2149999999999991E-3</v>
       </c>
       <c r="E9" s="12">
@@ -29545,16 +29537,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="5">
         <v>0.13439999999999999</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>0.1</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>2.3375E-2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>1.344999999999999E-3</v>
       </c>
       <c r="E10" s="11">
@@ -29562,16 +29554,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="5">
         <v>0.1323</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>0.11</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>2.1990000000000003E-2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>1.2499999999999994E-3</v>
       </c>
       <c r="E11" s="12">
@@ -29579,16 +29571,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="5">
         <v>0.13</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>0.12</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>2.0325000000000003E-2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>1.1850000000000003E-3</v>
       </c>
       <c r="E12" s="12">
@@ -29596,16 +29588,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="5">
         <v>0.1275</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>0.13</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>1.83E-2</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>1.0900000000000007E-3</v>
       </c>
       <c r="E13" s="12">
@@ -29613,16 +29605,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="5">
         <v>0.12479999999999999</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>1.583E-2</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>9.9000000000000043E-4</v>
       </c>
       <c r="E14" s="12">
@@ -29630,16 +29622,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="5">
         <v>0.12190000000000001</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>0.15</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>1.3645000000000001E-2</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>1.5050000000000003E-3</v>
       </c>
       <c r="E15" s="12">
@@ -29647,16 +29639,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="5">
         <v>0.1188</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>0.16</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>1.2364999999999999E-2</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>1.4450000000000001E-3</v>
       </c>
       <c r="E16" s="12">
@@ -29664,16 +29656,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="5">
         <v>0.11549999999999999</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>0.17</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>1.082E-2</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>1.2500000000000002E-3</v>
       </c>
       <c r="E17" s="12">
@@ -29681,16 +29673,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="5">
         <v>0.112</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>0.18</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>9.0900000000000009E-3</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>1.0599999999999993E-3</v>
       </c>
       <c r="E18" s="12">
@@ -29698,16 +29690,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="5">
         <v>0.10830000000000001</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>0.19</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>9.6600000000000002E-3</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>1.1199999999999995E-3</v>
       </c>
       <c r="E19" s="12">
@@ -29715,16 +29707,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="5">
         <v>0.10439999999999999</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>0.2</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>1.0525E-2</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>1.0249999999999999E-3</v>
       </c>
       <c r="E20" s="12">
@@ -29732,16 +29724,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="5">
         <v>0.1003</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>0.21</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>1.1099999999999999E-2</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>1.0899999999999998E-3</v>
       </c>
       <c r="E21" s="12">
@@ -29775,13 +29767,13 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>0.56999999999999995</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -29789,13 +29781,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
@@ -29805,13 +29797,13 @@
         <f>$D$1^2-B3^2</f>
         <v>0.32287499999999997</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>4.8150000000000005E-4</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1.485E-4</v>
       </c>
       <c r="E3" s="12">
@@ -29823,13 +29815,13 @@
         <f t="shared" ref="A4:A18" si="0">$D$1^2-B4^2</f>
         <v>0.32067499999999999</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>9.7199999999999999E-4</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="E4" s="12">
@@ -29841,13 +29833,13 @@
         <f t="shared" si="0"/>
         <v>0.31767499999999999</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>1.6849999999999999E-3</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>2.41E-4</v>
       </c>
       <c r="E5" s="12">
@@ -29859,13 +29851,13 @@
         <f t="shared" si="0"/>
         <v>0.31387499999999996</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>0.105</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>2.7870000000000004E-3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>3.6099999999999999E-4</v>
       </c>
       <c r="E6" s="12">
@@ -29877,13 +29869,13 @@
         <f t="shared" si="0"/>
         <v>0.30927499999999997</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>0.125</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>4.3144999999999998E-3</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>5.9249999999999993E-4</v>
       </c>
       <c r="E7" s="12">
@@ -29895,13 +29887,13 @@
         <f t="shared" si="0"/>
         <v>0.30387499999999995</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>0.14499999999999999</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>5.3609999999999994E-3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>6.3900000000000024E-4</v>
       </c>
       <c r="E8" s="12">
@@ -29913,13 +29905,13 @@
         <f t="shared" si="0"/>
         <v>0.29767499999999997</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>6.1665000000000001E-3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>7.5949999999999976E-4</v>
       </c>
       <c r="E9" s="12">
@@ -29931,13 +29923,13 @@
         <f t="shared" si="0"/>
         <v>0.29030399999999995</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>0.186</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>7.0460000000000002E-3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>8.2400000000000008E-4</v>
       </c>
       <c r="E10" s="11">
@@ -29949,13 +29941,13 @@
         <f t="shared" si="0"/>
         <v>0.28287499999999999</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>5.8980000000000005E-3</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>8.6100000000000022E-4</v>
       </c>
       <c r="E11" s="12">
@@ -29967,13 +29959,13 @@
         <f t="shared" si="0"/>
         <v>0.27427499999999994</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>6.2965E-3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>8.3350000000000004E-4</v>
       </c>
       <c r="E12" s="12">
@@ -29985,13 +29977,13 @@
         <f t="shared" si="0"/>
         <v>0.26487499999999997</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>0.245</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>5.3430000000000005E-3</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>7.8699999999999994E-4</v>
       </c>
       <c r="E13" s="12">
@@ -30003,13 +29995,13 @@
         <f t="shared" si="0"/>
         <v>0.25467499999999998</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>3.4814999999999998E-3</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>7.964999999999999E-4</v>
       </c>
       <c r="E14" s="12">
@@ -30021,13 +30013,13 @@
         <f t="shared" si="0"/>
         <v>0.24367499999999997</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>3.0739999999999999E-3</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>7.4099999999999991E-4</v>
       </c>
       <c r="E15" s="12">
@@ -30039,13 +30031,13 @@
         <f t="shared" si="0"/>
         <v>0.23187499999999997</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>8.3299999999999997E-4</v>
       </c>
       <c r="E16" s="12">
@@ -30057,13 +30049,13 @@
         <f t="shared" si="0"/>
         <v>0.21927499999999994</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>3.3145000000000002E-3</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>9.8150000000000017E-4</v>
       </c>
       <c r="E17" s="12">
@@ -30075,13 +30067,13 @@
         <f t="shared" si="0"/>
         <v>0.20587499999999997</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>3.0740000000000003E-3</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>1.3520000000000001E-3</v>
       </c>
       <c r="E18" s="12">
@@ -30120,13 +30112,13 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>0.56999999999999995</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -30134,13 +30126,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
@@ -30150,13 +30142,13 @@
         <f>$D$1^2-B3^2</f>
         <v>0.32287499999999997</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>1.4E-3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1.4999999999999996E-4</v>
       </c>
       <c r="E3" s="12">
@@ -30168,13 +30160,13 @@
         <f t="shared" ref="A4:A18" si="0">$D$1^2-B4^2</f>
         <v>0.32067499999999999</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>3.13E-3</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1.8000000000000004E-4</v>
       </c>
       <c r="E4" s="12">
@@ -30186,13 +30178,13 @@
         <f t="shared" si="0"/>
         <v>0.31767499999999999</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>5.7400000000000003E-3</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>2.9999999999999992E-4</v>
       </c>
       <c r="E5" s="12">
@@ -30204,13 +30196,13 @@
         <f t="shared" si="0"/>
         <v>0.31387499999999996</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>0.105</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>8.7449999999999993E-3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>3.9500000000000039E-4</v>
       </c>
       <c r="E6" s="12">
@@ -30222,13 +30214,13 @@
         <f t="shared" si="0"/>
         <v>0.30927499999999997</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>0.125</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>1.2414999999999999E-2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>4.3500000000000049E-4</v>
       </c>
       <c r="E7" s="12">
@@ -30240,13 +30232,13 @@
         <f t="shared" si="0"/>
         <v>0.30387499999999995</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0.14499999999999999</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.5384999999999999E-2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>6.150000000000001E-4</v>
       </c>
       <c r="E8" s="12">
@@ -30258,13 +30250,13 @@
         <f t="shared" si="0"/>
         <v>0.29767499999999997</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1.754E-2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>7.6999999999999985E-4</v>
       </c>
       <c r="E9" s="12">
@@ -30276,13 +30268,13 @@
         <f t="shared" si="0"/>
         <v>0.29067499999999996</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>0.185</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>8.0000000000000036E-4</v>
       </c>
       <c r="E10" s="11">
@@ -30294,13 +30286,13 @@
         <f t="shared" si="0"/>
         <v>0.28287499999999999</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>1.8915000000000001E-2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>8.6499999999999945E-4</v>
       </c>
       <c r="E11" s="12">
@@ -30312,13 +30304,13 @@
         <f t="shared" si="0"/>
         <v>0.27427499999999994</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>1.6669999999999997E-2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>8.0000000000000036E-4</v>
       </c>
       <c r="E12" s="12">
@@ -30330,13 +30322,13 @@
         <f t="shared" si="0"/>
         <v>0.26487499999999997</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.245</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>1.431E-2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>7.3999999999999934E-4</v>
       </c>
       <c r="E13" s="12">
@@ -30348,13 +30340,13 @@
         <f t="shared" si="0"/>
         <v>0.25467499999999998</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>1.3524999999999999E-2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>7.949999999999997E-4</v>
       </c>
       <c r="E14" s="12">
@@ -30366,13 +30358,13 @@
         <f t="shared" si="0"/>
         <v>0.24367499999999997</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>1.2619999999999999E-2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>7.999999999999995E-4</v>
       </c>
       <c r="E15" s="12">
@@ -30384,13 +30376,13 @@
         <f t="shared" si="0"/>
         <v>0.23187499999999997</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>1.329E-2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>8.0000000000000036E-4</v>
       </c>
       <c r="E16" s="12">
@@ -30402,13 +30394,13 @@
         <f t="shared" si="0"/>
         <v>0.21927499999999994</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>1.457E-2</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>8.5999999999999965E-4</v>
       </c>
       <c r="E17" s="12">
@@ -30420,13 +30412,13 @@
         <f t="shared" si="0"/>
         <v>0.20656399999999997</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>1.7264999999999999E-2</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>1.0749999999999996E-3</v>
       </c>
       <c r="E18" s="12">
@@ -30448,8 +30440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6BC717-B46D-1442-96F8-8DE3A4033DB5}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="D5" zoomScale="178" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30458,586 +30450,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>0.16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="15">
         <v>0.16</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1.9095000000000001E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>1.825E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>3.1499999999999996E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="15">
         <v>0.16</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2.4410000000000001E-2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2.5999999999999981E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="15">
         <v>0.16</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>2.8764999999999999E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>4.4000000000000029E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="15">
         <v>0.16</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>3.4790000000000001E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>7.3399999999999993E-3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="15">
         <v>0.16</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>3.9394999999999999E-2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>8.9750000000000003E-3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>5.8500000000000045E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="15">
         <v>0.16</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1.2285000000000001E-2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>6.2499999999999969E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="15">
         <v>0.16</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>5.407E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1.409E-2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>6.3000000000000035E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="15">
         <v>0.16</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>5.8095000000000001E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>1.602E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>8.7999999999999884E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="15">
         <v>0.16</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>6.7849999999999994E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>1.8009999999999998E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>8.6000000000000139E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="15">
         <v>0.16</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>7.1839999999999987E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>1.89E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>6.3999999999999994E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="15">
         <v>0.16</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>7.7880000000000005E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>2.0525000000000002E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>7.7499999999999965E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="15">
         <v>0.16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>8.7820000000000009E-2</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>2.2475000000000002E-2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>8.3500000000000067E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="15">
         <v>0.16</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>9.7730000000000011E-2</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>2.3315000000000002E-2</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>8.3500000000000067E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="15">
         <v>0.16</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>0.10772499999999999</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>2.3614999999999997E-2</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>7.5500000000000046E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="15">
         <v>0.16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.11785000000000001</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>2.3010000000000003E-2</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>6.4999999999999954E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="15">
         <v>0.16</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>0.12792999999999999</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>2.146E-2</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>6.8999999999999964E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="15">
         <v>0.16</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>0.13795499999999999</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>2.0244999999999999E-2</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>8.1499999999999975E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="15">
         <v>0.16</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>0.14722000000000002</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>1.814E-2</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>6.7000000000000046E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="15">
         <v>0.16</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>0.15748499999999999</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>1.6544999999999997E-2</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>7.5500000000000046E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="15">
         <v>0.16</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>0.16731000000000001</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>1.4274999999999999E-2</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>5.7499999999999999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="15">
         <v>0.16</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>0.17809999999999998</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>1.2760000000000001E-2</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>4.8000000000000039E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="15">
         <v>0.16</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>0.18798500000000001</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>1.2580000000000001E-2</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>4.5999999999999947E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="15">
         <v>0.16</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>0.19328499999999998</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>1.1825E-2</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>5.0500000000000024E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="15">
         <v>0.16</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>0.19895499999999999</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>1.107E-2</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>3.8000000000000013E-4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="15">
         <v>0.16</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>0.20791499999999999</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>9.7649999999999994E-3</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>3.8499999999999993E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="15">
         <v>0.16</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>0.218835</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>9.8999999999999991E-3</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>4.5999999999999947E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="15">
         <v>0.16</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0.22793000000000002</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>1.0190000000000001E-2</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="15">
         <v>0.16</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>0.23819499999999999</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>9.8700000000000003E-3</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>4.6000000000000034E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="15">
         <v>0.16</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>0.24763000000000002</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>1.0270000000000001E-2</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>4.0000000000000018E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="15">
         <v>0.16</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>0.25836499999999996</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>1.167E-2</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>6.7000000000000046E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="15">
         <v>0.16</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>0.26812999999999998</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>1.2265E-2</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>5.0500000000000024E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="15">
         <v>0.16</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>0.27778999999999998</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>1.3690000000000001E-2</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>4.9999999999999958E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="15">
         <v>0.16</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>0.28781499999999999</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>1.499E-2</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>5.0000000000000044E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="15">
         <v>0.16</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>0.29791499999999999</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="19">
         <v>1.5769999999999999E-2</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>5.1999999999999963E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="15">
         <v>0.16</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.307585</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>1.7114999999999998E-2</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>5.2499999999999943E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="15">
         <v>0.16</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>0.31718000000000002</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>1.8915000000000001E-2</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>6.9499999999999944E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="15">
         <v>0.16</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0.32729999999999998</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>2.0825E-2</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>7.1500000000000036E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="A40" s="15">
         <v>0.16</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>0.33660499999999999</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>2.2165000000000001E-2</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>7.9500000000000057E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="15">
         <v>0.16</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>0.34691499999999997</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>2.2775E-2</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>8.1499999999999975E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="15">
         <v>0.16</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>0.35636000000000001</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>2.4395E-2</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>8.3499999999999894E-4</v>
       </c>
     </row>
@@ -31051,512 +31043,512 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C481DA17-32F1-0B41-9141-FEB55BD913D1}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="10.83203125" style="19"/>
+    <col min="2" max="4" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>0.16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="15">
         <v>0.16</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1.9054999999999999E-2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>5.8999999999999981E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="15">
         <v>0.16</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>2.87E-2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>7.899999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="15">
         <v>0.16</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3.8960000000000002E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>7.4150000000000006E-3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>8.2500000000000021E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="15">
         <v>0.16</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>4.9195000000000003E-2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>9.2049999999999996E-3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>1.065E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="15">
         <v>0.16</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>5.9130000000000002E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1.057E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="15">
         <v>0.16</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>6.9510000000000002E-2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>1.323E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>1.2799999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="15">
         <v>0.16</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>7.8390000000000001E-2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>1.389E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>1.5399999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="15">
         <v>0.16</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>8.9249999999999996E-2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>1.4945E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>2.1949999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="15">
         <v>0.16</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>9.9205000000000002E-2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>1.5129999999999999E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="15">
         <v>0.16</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>0.10871</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>1.4929999999999999E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>1.5299999999999992E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="15">
         <v>0.16</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>0.11896999999999999</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>1.523E-2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>1.6800000000000009E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="15">
         <v>0.16</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>0.12923499999999999</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>1.498E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>1.5799999999999989E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="15">
         <v>0.16</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>0.13877500000000001</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>1.2670000000000001E-2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>1.3800000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="15">
         <v>0.16</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>0.148595</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>1.158E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>1.4199999999999994E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="15">
         <v>0.16</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>0.16425000000000001</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>1.0225E-2</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>1.065E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="15">
         <v>0.16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>0.17421999999999999</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>9.1299999999999992E-3</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>2.9999999999999992E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="15">
         <v>0.16</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>0.18190000000000001</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>7.8799999999999999E-3</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>7.0000000000000053E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="15">
         <v>0.16</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>0.187585</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>6.9300000000000004E-3</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="15">
         <v>0.16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>0.19894000000000001</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>5.8849999999999996E-3</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>9.6500000000000015E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="15">
         <v>0.16</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>0.20966000000000001</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>6.0600000000000003E-3</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>1.0400000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="15">
         <v>0.16</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>0.21934500000000001</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>4.2400000000000007E-3</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="15">
         <v>0.16</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>0.22947000000000001</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>3.15E-3</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>1.7899999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="15">
         <v>0.16</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>0.23926500000000001</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>4.1150000000000006E-3</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>1.755E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="15">
         <v>0.16</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>0.24937000000000001</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>4.4650000000000002E-3</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="15">
         <v>0.16</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>0.25934000000000001</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>3.9900000000000005E-3</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>1.7799999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="15">
         <v>0.16</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>0.26946999999999999</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>2.7749999999999997E-3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>1.7649999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="15">
         <v>0.16</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>0.27941500000000002</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>3.5500000000000002E-3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>1.49E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="15">
         <v>0.16</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>0.28846499999999997</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>2.7300000000000002E-3</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <v>1.8800000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="15">
         <v>0.16</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>0.29932000000000003</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>4.385E-3</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <v>2.6849999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="15">
         <v>0.16</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>0.309415</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>2.9950000000000003E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="15">
         <v>0.16</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>0.31906999999999996</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>5.3249999999999999E-3</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="15">
         <v>0.16</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>0.32902999999999999</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>5.5599999999999998E-3</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>4.6100000000000004E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="15">
         <v>0.16</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>0.33927499999999999</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>6.6649999999999999E-3</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>6.3150000000000003E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="15">
         <v>0.16</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>0.34941500000000003</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>5.0099999999999997E-3</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="17">
         <v>3.2599999999999999E-3</v>
       </c>
     </row>
@@ -31607,19 +31599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D1">
         <v>0.3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I1">
@@ -31630,13 +31622,13 @@
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -31654,7 +31646,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
-        <f>q330_^2-B3^2</f>
+        <f t="shared" ref="A3:A36" si="0">q330_^2-B3^2</f>
         <v>8.9822778098124195E-2</v>
       </c>
       <c r="B3" s="15">
@@ -31667,7 +31659,7 @@
         <v>8.9000000000000017E-4</v>
       </c>
       <c r="F3" s="13">
-        <f>q330_^2-G3^2</f>
+        <f t="shared" ref="F3:F36" si="1">q330_^2-G3^2</f>
         <v>8.9821840773383094E-2</v>
       </c>
       <c r="G3" s="15">
@@ -31682,7 +31674,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <f>q330_^2-B4^2</f>
+        <f t="shared" si="0"/>
         <v>8.9657167063656659E-2</v>
       </c>
       <c r="B4" s="15">
@@ -31695,7 +31687,7 @@
         <v>8.3000000000000088E-4</v>
       </c>
       <c r="F4" s="13">
-        <f>q330_^2-G4^2</f>
+        <f t="shared" si="1"/>
         <v>8.966624905878133E-2</v>
       </c>
       <c r="G4" s="15">
@@ -31710,7 +31702,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
-        <f>q330_^2-B5^2</f>
+        <f t="shared" si="0"/>
         <v>8.9446775965888778E-2</v>
       </c>
       <c r="B5" s="15">
@@ -31723,7 +31715,7 @@
         <v>7.6500000000000005E-4</v>
       </c>
       <c r="F5" s="13">
-        <f>q330_^2-G5^2</f>
+        <f t="shared" si="1"/>
         <v>8.9453872545803101E-2</v>
       </c>
       <c r="G5" s="15">
@@ -31738,7 +31730,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <f>q330_^2-B6^2</f>
+        <f t="shared" si="0"/>
         <v>8.9194882736913866E-2</v>
       </c>
       <c r="B6" s="15">
@@ -31751,7 +31743,7 @@
         <v>8.3499999999999894E-4</v>
       </c>
       <c r="F6" s="13">
-        <f>q330_^2-G6^2</f>
+        <f t="shared" si="1"/>
         <v>8.9167013240519899E-2</v>
       </c>
       <c r="G6" s="15">
@@ -31766,7 +31758,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <f>q330_^2-B7^2</f>
+        <f t="shared" si="0"/>
         <v>8.8894613828801997E-2</v>
       </c>
       <c r="B7" s="15">
@@ -31779,7 +31771,7 @@
         <v>8.9999999999999976E-4</v>
       </c>
       <c r="F7" s="13">
-        <f>q330_^2-G7^2</f>
+        <f t="shared" si="1"/>
         <v>8.8886293819863987E-2</v>
       </c>
       <c r="G7" s="15">
@@ -31794,7 +31786,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <f>q330_^2-B8^2</f>
+        <f t="shared" si="0"/>
         <v>8.8545056878853057E-2</v>
       </c>
       <c r="B8" s="15">
@@ -31807,7 +31799,7 @@
         <v>8.7000000000000098E-4</v>
       </c>
       <c r="F8" s="13">
-        <f>q330_^2-G8^2</f>
+        <f t="shared" si="1"/>
         <v>8.8561661885733195E-2</v>
       </c>
       <c r="G8" s="15">
@@ -31822,7 +31814,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <f>q330_^2-B9^2</f>
+        <f t="shared" si="0"/>
         <v>8.8102984042802479E-2</v>
       </c>
       <c r="B9" s="15">
@@ -31835,7 +31827,7 @@
         <v>8.5000000000000006E-4</v>
       </c>
       <c r="F9" s="13">
-        <f>q330_^2-G9^2</f>
+        <f t="shared" si="1"/>
         <v>8.814104546779597E-2</v>
       </c>
       <c r="G9" s="15">
@@ -31850,7 +31842,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <f>q330_^2-B10^2</f>
+        <f t="shared" si="0"/>
         <v>8.7721971196309992E-2</v>
       </c>
       <c r="B10" s="15">
@@ -31863,7 +31855,7 @@
         <v>7.6500000000000005E-4</v>
       </c>
       <c r="F10" s="13">
-        <f>q330_^2-G10^2</f>
+        <f t="shared" si="1"/>
         <v>8.7643705464583194E-2</v>
       </c>
       <c r="G10" s="15">
@@ -31878,7 +31870,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <f>q330_^2-B11^2</f>
+        <f t="shared" si="0"/>
         <v>8.7167631777399987E-2</v>
       </c>
       <c r="B11" s="15">
@@ -31891,7 +31883,7 @@
         <v>8.0000000000000036E-4</v>
       </c>
       <c r="F11" s="13">
-        <f>q330_^2-G11^2</f>
+        <f t="shared" si="1"/>
         <v>8.7220875385790653E-2</v>
       </c>
       <c r="G11" s="15">
@@ -31906,7 +31898,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <f>q330_^2-B12^2</f>
+        <f t="shared" si="0"/>
         <v>8.6582857872639946E-2</v>
       </c>
       <c r="B12" s="15">
@@ -31919,7 +31911,7 @@
         <v>7.1499999999999862E-4</v>
       </c>
       <c r="F12" s="13">
-        <f>q330_^2-G12^2</f>
+        <f t="shared" si="1"/>
         <v>8.6627012124595101E-2</v>
       </c>
       <c r="G12" s="15">
@@ -31934,7 +31926,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <f>q330_^2-B13^2</f>
+        <f t="shared" si="0"/>
         <v>8.5932411998253966E-2</v>
       </c>
       <c r="B13" s="15">
@@ -31947,7 +31939,7 @@
         <v>1.1199999999999995E-3</v>
       </c>
       <c r="F13" s="13">
-        <f>q330_^2-G13^2</f>
+        <f t="shared" si="1"/>
         <v>8.6006161731231531E-2</v>
       </c>
       <c r="G13" s="15">
@@ -31962,7 +31954,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <f>q330_^2-B14^2</f>
+        <f t="shared" si="0"/>
         <v>8.5296841207023591E-2</v>
       </c>
       <c r="B14" s="15">
@@ -31975,7 +31967,7 @@
         <v>1.1050000000000001E-3</v>
       </c>
       <c r="F14" s="13">
-        <f>q330_^2-G14^2</f>
+        <f t="shared" si="1"/>
         <v>8.5339339542859091E-2</v>
       </c>
       <c r="G14" s="15">
@@ -31990,7 +31982,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <f>q330_^2-B15^2</f>
+        <f t="shared" si="0"/>
         <v>8.462346563922897E-2</v>
       </c>
       <c r="B15" s="15">
@@ -32003,7 +31995,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="F15" s="13">
-        <f>q330_^2-G15^2</f>
+        <f t="shared" si="1"/>
         <v>8.4659750365869854E-2</v>
       </c>
       <c r="G15" s="15">
@@ -32018,7 +32010,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <f>q330_^2-B16^2</f>
+        <f t="shared" si="0"/>
         <v>8.3871833754413969E-2</v>
       </c>
       <c r="B16" s="15">
@@ -32031,7 +32023,7 @@
         <v>1.2949999999999993E-3</v>
       </c>
       <c r="F16" s="13">
-        <f>q330_^2-G16^2</f>
+        <f t="shared" si="1"/>
         <v>8.3853551066164933E-2</v>
       </c>
       <c r="G16" s="15">
@@ -32046,7 +32038,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <f>q330_^2-B17^2</f>
+        <f t="shared" si="0"/>
         <v>8.304744124217997E-2</v>
       </c>
       <c r="B17" s="15">
@@ -32059,7 +32051,7 @@
         <v>1.2250000000000004E-3</v>
       </c>
       <c r="F17" s="13">
-        <f>q330_^2-G17^2</f>
+        <f t="shared" si="1"/>
         <v>8.3053760161748966E-2</v>
       </c>
       <c r="G17" s="15">
@@ -32074,7 +32066,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <f>q330_^2-B18^2</f>
+        <f t="shared" si="0"/>
         <v>8.2161011046055776E-2</v>
       </c>
       <c r="B18" s="15">
@@ -32087,7 +32079,7 @@
         <v>1.2250000000000004E-3</v>
       </c>
       <c r="F18" s="13">
-        <f>q330_^2-G18^2</f>
+        <f t="shared" si="1"/>
         <v>8.2262448470355146E-2</v>
       </c>
       <c r="G18" s="15">
@@ -32102,7 +32094,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <f>q330_^2-B19^2</f>
+        <f t="shared" si="0"/>
         <v>8.1308786136177591E-2</v>
       </c>
       <c r="B19" s="15">
@@ -32115,7 +32107,7 @@
         <v>1.1750000000000007E-3</v>
       </c>
       <c r="F19" s="13">
-        <f>q330_^2-G19^2</f>
+        <f t="shared" si="1"/>
         <v>8.1394354832219712E-2</v>
       </c>
       <c r="G19" s="15">
@@ -32130,7 +32122,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f>q330_^2-B20^2</f>
+        <f t="shared" si="0"/>
         <v>8.0271533612436524E-2</v>
       </c>
       <c r="B20" s="15">
@@ -32143,7 +32135,7 @@
         <v>1.1599999999999996E-3</v>
       </c>
       <c r="F20" s="13">
-        <f>q330_^2-G20^2</f>
+        <f t="shared" si="1"/>
         <v>8.0324806790246395E-2</v>
       </c>
       <c r="G20" s="15">
@@ -32158,7 +32150,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f>q330_^2-B21^2</f>
+        <f t="shared" si="0"/>
         <v>7.9375322419007452E-2</v>
       </c>
       <c r="B21" s="15">
@@ -32171,7 +32163,7 @@
         <v>7.6500000000000005E-4</v>
       </c>
       <c r="F21" s="13">
-        <f>q330_^2-G21^2</f>
+        <f t="shared" si="1"/>
         <v>7.9393775325135946E-2</v>
       </c>
       <c r="G21" s="15">
@@ -32186,7 +32178,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <f>q330_^2-B22^2</f>
+        <f t="shared" si="0"/>
         <v>7.8447750445396591E-2</v>
       </c>
       <c r="B22" s="15">
@@ -32199,7 +32191,7 @@
         <v>8.1999999999999955E-4</v>
       </c>
       <c r="F22" s="13">
-        <f>q330_^2-G22^2</f>
+        <f t="shared" si="1"/>
         <v>7.8314130558559999E-2</v>
       </c>
       <c r="G22" s="15">
@@ -32214,7 +32206,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <f>q330_^2-B23^2</f>
+        <f t="shared" si="0"/>
         <v>7.7206214240487653E-2</v>
       </c>
       <c r="B23" s="15">
@@ -32227,7 +32219,7 @@
         <v>1.1400000000000004E-3</v>
       </c>
       <c r="F23" s="13">
-        <f>q330_^2-G23^2</f>
+        <f t="shared" si="1"/>
         <v>7.7216331403053812E-2</v>
       </c>
       <c r="G23" s="15">
@@ -32242,7 +32234,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <f>q330_^2-B24^2</f>
+        <f t="shared" si="0"/>
         <v>7.6122463793267967E-2</v>
       </c>
       <c r="B24" s="15">
@@ -32255,7 +32247,7 @@
         <v>1.2250000000000004E-3</v>
       </c>
       <c r="F24" s="13">
-        <f>q330_^2-G24^2</f>
+        <f t="shared" si="1"/>
         <v>7.6051429436795548E-2</v>
       </c>
       <c r="G24" s="15">
@@ -32270,7 +32262,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f>q330_^2-B25^2</f>
+        <f t="shared" si="0"/>
         <v>7.4920533719017857E-2</v>
       </c>
       <c r="B25" s="15">
@@ -32283,7 +32275,7 @@
         <v>1.2649999999999996E-3</v>
       </c>
       <c r="F25" s="13">
-        <f>q330_^2-G25^2</f>
+        <f t="shared" si="1"/>
         <v>7.4770595525482625E-2</v>
       </c>
       <c r="G25" s="15">
@@ -32298,7 +32290,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f>q330_^2-B26^2</f>
+        <f t="shared" si="0"/>
         <v>7.3636093248989815E-2</v>
       </c>
       <c r="B26" s="15">
@@ -32311,7 +32303,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="F26" s="13">
-        <f>q330_^2-G26^2</f>
+        <f t="shared" si="1"/>
         <v>7.3583777666015954E-2</v>
       </c>
       <c r="G26" s="15">
@@ -32326,7 +32318,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f>q330_^2-B27^2</f>
+        <f t="shared" si="0"/>
         <v>7.2407046445007006E-2</v>
       </c>
       <c r="B27" s="15">
@@ -32339,7 +32331,7 @@
         <v>1.1900000000000005E-3</v>
       </c>
       <c r="F27" s="13">
-        <f>q330_^2-G27^2</f>
+        <f t="shared" si="1"/>
         <v>7.2211751347541278E-2</v>
       </c>
       <c r="G27" s="15">
@@ -32354,7 +32346,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f>q330_^2-B28^2</f>
+        <f t="shared" si="0"/>
         <v>7.0908436238549366E-2</v>
       </c>
       <c r="B28" s="15">
@@ -32367,7 +32359,7 @@
         <v>1.225E-3</v>
       </c>
       <c r="F28" s="13">
-        <f>q330_^2-G28^2</f>
+        <f t="shared" si="1"/>
         <v>7.0904824706380612E-2</v>
       </c>
       <c r="G28" s="15">
@@ -32382,7 +32374,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <f>q330_^2-B29^2</f>
+        <f t="shared" si="0"/>
         <v>6.9394694693084652E-2</v>
       </c>
       <c r="B29" s="15">
@@ -32395,7 +32387,7 @@
         <v>1.14E-3</v>
       </c>
       <c r="F29" s="13">
-        <f>q330_^2-G29^2</f>
+        <f t="shared" si="1"/>
         <v>6.9540777082652383E-2</v>
       </c>
       <c r="G29" s="15">
@@ -32410,7 +32402,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <f>q330_^2-B30^2</f>
+        <f t="shared" si="0"/>
         <v>6.8082609874247094E-2</v>
       </c>
       <c r="B30" s="15">
@@ -32423,7 +32415,7 @@
         <v>1.2100000000000001E-3</v>
       </c>
       <c r="F30" s="13">
-        <f>q330_^2-G30^2</f>
+        <f t="shared" si="1"/>
         <v>6.796609137967298E-2</v>
       </c>
       <c r="G30" s="15">
@@ -32438,7 +32430,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f>q330_^2-B31^2</f>
+        <f t="shared" si="0"/>
         <v>6.6705534079939149E-2</v>
       </c>
       <c r="B31" s="15">
@@ -32451,7 +32443,7 @@
         <v>1.1949999999999999E-3</v>
       </c>
       <c r="F31" s="13">
-        <f>q330_^2-G31^2</f>
+        <f t="shared" si="1"/>
         <v>6.6514151943298655E-2</v>
       </c>
       <c r="G31" s="15">
@@ -32466,7 +32458,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f>q330_^2-B32^2</f>
+        <f t="shared" si="0"/>
         <v>6.5076741570396335E-2</v>
       </c>
       <c r="B32" s="15">
@@ -32479,7 +32471,7 @@
         <v>1.565E-3</v>
       </c>
       <c r="F32" s="13">
-        <f>q330_^2-G32^2</f>
+        <f t="shared" si="1"/>
         <v>6.4989032442764522E-2</v>
       </c>
       <c r="G32" s="15">
@@ -32494,7 +32486,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <f>q330_^2-B33^2</f>
+        <f t="shared" si="0"/>
         <v>6.3482179063395552E-2</v>
       </c>
       <c r="B33" s="15">
@@ -32507,7 +32499,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="F33" s="13">
-        <f>q330_^2-G33^2</f>
+        <f t="shared" si="1"/>
         <v>6.3289623458720967E-2</v>
       </c>
       <c r="G33" s="15">
@@ -32522,7 +32514,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f>q330_^2-B34^2</f>
+        <f t="shared" si="0"/>
         <v>6.1760471304635897E-2</v>
       </c>
       <c r="B34" s="15">
@@ -32535,7 +32527,7 @@
         <v>1.9250000000000001E-3</v>
       </c>
       <c r="F34" s="13">
-        <f>q330_^2-G34^2</f>
+        <f t="shared" si="1"/>
         <v>6.1812303198713586E-2</v>
       </c>
       <c r="G34" s="15">
@@ -32550,7 +32542,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f>q330_^2-B35^2</f>
+        <f t="shared" si="0"/>
         <v>5.9997702364131142E-2</v>
       </c>
       <c r="B35" s="15">
@@ -32563,7 +32555,7 @@
         <v>1.9399999999999999E-3</v>
       </c>
       <c r="F35" s="13">
-        <f>q330_^2-G35^2</f>
+        <f t="shared" si="1"/>
         <v>6.0184521431299924E-2</v>
       </c>
       <c r="G35" s="15">
@@ -32578,7 +32570,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <f>q330_^2-B36^2</f>
+        <f t="shared" si="0"/>
         <v>5.836155220890666E-2</v>
       </c>
       <c r="B36" s="15">
@@ -32591,7 +32583,7 @@
         <v>2.0299999999999997E-3</v>
       </c>
       <c r="F36" s="13">
-        <f>q330_^2-G36^2</f>
+        <f t="shared" si="1"/>
         <v>5.8287940396963993E-2</v>
       </c>
       <c r="G36" s="15">
